--- a/raw_data/20200818_saline/20200818_Sensor1_Test_28.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_28.xlsx
@@ -1,1067 +1,1483 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A56270-646E-4BF7-89D8-119DEC2E1EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>24487.042431</v>
+        <v>24487.042431000002</v>
       </c>
       <c r="B2" s="1">
-        <v>6.801956</v>
+        <v>6.8019559999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>898.272000</v>
+        <v>898.27200000000005</v>
       </c>
       <c r="D2" s="1">
-        <v>-204.389000</v>
+        <v>-204.38900000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>24497.446513</v>
+        <v>24497.446512999999</v>
       </c>
       <c r="G2" s="1">
-        <v>6.804846</v>
+        <v>6.8048460000000004</v>
       </c>
       <c r="H2" s="1">
-        <v>917.323000</v>
+        <v>917.32299999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.298000</v>
+        <v>-171.298</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>24507.868948</v>
+        <v>24507.868947999999</v>
       </c>
       <c r="L2" s="1">
         <v>6.807741</v>
       </c>
       <c r="M2" s="1">
-        <v>940.535000</v>
+        <v>940.53499999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.102000</v>
+        <v>-121.102</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>24518.359372</v>
+        <v>24518.359371999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>6.810655</v>
+        <v>6.8106549999999997</v>
       </c>
       <c r="R2" s="1">
-        <v>947.247000</v>
+        <v>947.24699999999996</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.386000</v>
+        <v>-104.386</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>24529.617066</v>
+        <v>24529.617065999999</v>
       </c>
       <c r="V2" s="1">
-        <v>6.813783</v>
+        <v>6.8137829999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>953.771000</v>
+        <v>953.77099999999996</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.995400</v>
+        <v>-88.995400000000004</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>24539.955642</v>
+        <v>24539.955642000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>6.816654</v>
+        <v>6.8166539999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.736000</v>
+        <v>960.73599999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.013500</v>
+        <v>-77.013499999999993</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>24550.507035</v>
+        <v>24550.507034999999</v>
       </c>
       <c r="AF2" s="1">
         <v>6.819585</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.327000</v>
+        <v>965.327</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.579400</v>
+        <v>-74.579400000000007</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>24561.622877</v>
+        <v>24561.622877000002</v>
       </c>
       <c r="AK2" s="1">
         <v>6.822673</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.422000</v>
+        <v>972.42200000000003</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.073100</v>
+        <v>-79.073099999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>24572.152979</v>
+        <v>24572.152978999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.825598</v>
+        <v>6.8255980000000003</v>
       </c>
       <c r="AQ2" s="1">
-        <v>980.385000</v>
+        <v>980.38499999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.463700</v>
+        <v>-90.463700000000003</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>24583.437955</v>
+        <v>24583.437955000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>6.828733</v>
+        <v>6.8287329999999997</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.106000</v>
+        <v>990.10599999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-107.927000</v>
+        <v>-107.92700000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>24593.934290</v>
+        <v>24593.934290000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>6.831648</v>
+        <v>6.8316480000000004</v>
       </c>
       <c r="BA2" s="1">
-        <v>998.275000</v>
+        <v>998.27499999999998</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.412000</v>
+        <v>-123.41200000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>24604.598276</v>
+        <v>24604.598276000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>6.834611</v>
+        <v>6.8346109999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1036.400000</v>
+        <v>1036.4000000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-194.792000</v>
+        <v>-194.792</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>24615.640677</v>
+        <v>24615.640676999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.837678</v>
+        <v>6.8376780000000004</v>
       </c>
       <c r="BK2" s="1">
-        <v>1102.330000</v>
+        <v>1102.33</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.792000</v>
+        <v>-310.79199999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>24626.811574</v>
+        <v>24626.811573999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.840781</v>
+        <v>6.8407809999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1209.500000</v>
+        <v>1209.5</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-493.689000</v>
+        <v>-493.68900000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>24637.544008</v>
+        <v>24637.544008000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>6.843762</v>
+        <v>6.8437619999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1329.920000</v>
+        <v>1329.92</v>
       </c>
       <c r="BV2" s="1">
-        <v>-694.526000</v>
+        <v>-694.52599999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>24648.972857</v>
+        <v>24648.972857000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>6.846937</v>
+        <v>6.8469369999999996</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1465.270000</v>
+        <v>1465.27</v>
       </c>
       <c r="CA2" s="1">
-        <v>-908.808000</v>
+        <v>-908.80799999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>24660.075276</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.850021</v>
+        <v>6.8500209999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1820.370000</v>
+        <v>1820.37</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1416.610000</v>
+        <v>-1416.61</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>24487.408975</v>
+        <v>24487.408974999998</v>
       </c>
       <c r="B3" s="1">
-        <v>6.802058</v>
+        <v>6.8020579999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>898.154000</v>
+        <v>898.154</v>
       </c>
       <c r="D3" s="1">
-        <v>-204.573000</v>
+        <v>-204.57300000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>24497.789745</v>
+        <v>24497.789744999998</v>
       </c>
       <c r="G3" s="1">
-        <v>6.804942</v>
+        <v>6.8049419999999996</v>
       </c>
       <c r="H3" s="1">
-        <v>917.074000</v>
+        <v>917.07399999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.450000</v>
+        <v>-171.45</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>24508.588644</v>
+        <v>24508.588643999999</v>
       </c>
       <c r="L3" s="1">
-        <v>6.807941</v>
+        <v>6.8079409999999996</v>
       </c>
       <c r="M3" s="1">
-        <v>940.402000</v>
+        <v>940.40200000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.940000</v>
+        <v>-120.94</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>24519.092421</v>
+        <v>24519.092421000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>6.810859</v>
+        <v>6.8108589999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>947.277000</v>
+        <v>947.27700000000004</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.378000</v>
+        <v>-104.378</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>24529.952326</v>
+        <v>24529.952325999999</v>
       </c>
       <c r="V3" s="1">
-        <v>6.813876</v>
+        <v>6.8138759999999996</v>
       </c>
       <c r="W3" s="1">
-        <v>953.742000</v>
+        <v>953.74199999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.942400</v>
+        <v>-88.942400000000006</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>24540.305817</v>
       </c>
       <c r="AA3" s="1">
-        <v>6.816752</v>
+        <v>6.8167520000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.729000</v>
+        <v>960.72900000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.010300</v>
+        <v>-77.010300000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>24550.872588</v>
+        <v>24550.872587999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.819687</v>
+        <v>6.8196870000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.350000</v>
+        <v>965.35</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.580800</v>
+        <v>-74.580799999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>24562.271677</v>
+        <v>24562.271677000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.822853</v>
+        <v>6.8228530000000003</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.440000</v>
+        <v>972.44</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.075100</v>
+        <v>-79.075100000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>24572.831967</v>
+        <v>24572.831966999998</v>
       </c>
       <c r="AP3" s="1">
         <v>6.825787</v>
       </c>
       <c r="AQ3" s="1">
-        <v>980.390000</v>
+        <v>980.39</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.473500</v>
+        <v>-90.473500000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>24583.882335</v>
+        <v>24583.882334999998</v>
       </c>
       <c r="AU3" s="1">
         <v>6.828856</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.134000</v>
+        <v>990.13400000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-107.925000</v>
+        <v>-107.925</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>24594.314226</v>
+        <v>24594.314225999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>6.831754</v>
+        <v>6.8317540000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>998.278000</v>
+        <v>998.27800000000002</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.420000</v>
+        <v>-123.42</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>24604.957846</v>
+        <v>24604.957846000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.834711</v>
+        <v>6.8347110000000004</v>
       </c>
       <c r="BF3" s="1">
-        <v>1036.440000</v>
+        <v>1036.44</v>
       </c>
       <c r="BG3" s="1">
-        <v>-194.801000</v>
+        <v>-194.80099999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>24616.045908</v>
       </c>
       <c r="BJ3" s="1">
-        <v>6.837791</v>
+        <v>6.8377910000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1102.370000</v>
+        <v>1102.3699999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.805000</v>
+        <v>-310.80500000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>24627.215816</v>
       </c>
       <c r="BO3" s="1">
-        <v>6.840893</v>
+        <v>6.8408930000000003</v>
       </c>
       <c r="BP3" s="1">
-        <v>1209.530000</v>
+        <v>1209.53</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-493.773000</v>
+        <v>-493.77300000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>24637.989912</v>
+        <v>24637.989912000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>6.843886</v>
+        <v>6.8438860000000004</v>
       </c>
       <c r="BU3" s="1">
-        <v>1329.870000</v>
+        <v>1329.87</v>
       </c>
       <c r="BV3" s="1">
-        <v>-694.470000</v>
+        <v>-694.47</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>24649.158825</v>
+        <v>24649.158824999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>6.846989</v>
+        <v>6.8469889999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1465.290000</v>
+        <v>1465.29</v>
       </c>
       <c r="CA3" s="1">
-        <v>-908.856000</v>
+        <v>-908.85599999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>24660.374364</v>
+        <v>24660.374363999999</v>
       </c>
       <c r="CD3" s="1">
         <v>6.850104</v>
       </c>
       <c r="CE3" s="1">
-        <v>1819.090000</v>
+        <v>1819.09</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1417.080000</v>
+        <v>-1417.08</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>24488.096430</v>
+        <v>24488.096430000001</v>
       </c>
       <c r="B4" s="1">
-        <v>6.802249</v>
+        <v>6.8022489999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>898.215000</v>
+        <v>898.21500000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>-204.568000</v>
+        <v>-204.56800000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>24498.477696</v>
+        <v>24498.477696000002</v>
       </c>
       <c r="G4" s="1">
-        <v>6.805133</v>
+        <v>6.8051329999999997</v>
       </c>
       <c r="H4" s="1">
-        <v>917.109000</v>
+        <v>917.10900000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.652000</v>
+        <v>-171.65199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>24508.934883</v>
+        <v>24508.934883000002</v>
       </c>
       <c r="L4" s="1">
-        <v>6.808037</v>
+        <v>6.8080369999999997</v>
       </c>
       <c r="M4" s="1">
-        <v>940.690000</v>
+        <v>940.69</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.135000</v>
+        <v>-121.13500000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>24519.440614</v>
+        <v>24519.440613999999</v>
       </c>
       <c r="Q4" s="1">
         <v>6.810956</v>
       </c>
       <c r="R4" s="1">
-        <v>947.264000</v>
+        <v>947.26400000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.371000</v>
+        <v>-104.371</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>24530.294566</v>
       </c>
       <c r="V4" s="1">
-        <v>6.813971</v>
+        <v>6.8139710000000004</v>
       </c>
       <c r="W4" s="1">
-        <v>953.788000</v>
+        <v>953.78800000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.984300</v>
+        <v>-88.984300000000005</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>24540.964537</v>
@@ -1070,240 +1486,240 @@
         <v>6.816935</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.741000</v>
+        <v>960.74099999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.976100</v>
+        <v>-76.976100000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>24551.523834</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.819868</v>
+        <v>6.8198679999999996</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.308000</v>
+        <v>965.30799999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.620600</v>
+        <v>-74.620599999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>24562.663023</v>
+        <v>24562.663023000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.822962</v>
+        <v>6.8229620000000004</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.434000</v>
+        <v>972.43399999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.101600</v>
+        <v>-79.101600000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>24573.246658</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.825902</v>
+        <v>6.8259020000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>980.403000</v>
+        <v>980.40300000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.459500</v>
+        <v>-90.459500000000006</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>24584.247392</v>
+        <v>24584.247392000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>6.828958</v>
+        <v>6.8289580000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.130000</v>
+        <v>990.13</v>
       </c>
       <c r="AW4" s="1">
-        <v>-107.928000</v>
+        <v>-107.928</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>24594.673297</v>
+        <v>24594.673297000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.831854</v>
+        <v>6.8318539999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>998.273000</v>
+        <v>998.27300000000002</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.420000</v>
+        <v>-123.42</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>24605.319427</v>
+        <v>24605.319426999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>6.834811</v>
+        <v>6.8348110000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1036.440000</v>
+        <v>1036.44</v>
       </c>
       <c r="BG4" s="1">
-        <v>-194.806000</v>
+        <v>-194.80600000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>24616.454148</v>
+        <v>24616.454148000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>6.837904</v>
       </c>
       <c r="BK4" s="1">
-        <v>1102.320000</v>
+        <v>1102.32</v>
       </c>
       <c r="BL4" s="1">
-        <v>-310.805000</v>
+        <v>-310.80500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>24627.637911</v>
+        <v>24627.637911000002</v>
       </c>
       <c r="BO4" s="1">
         <v>6.841011</v>
       </c>
       <c r="BP4" s="1">
-        <v>1209.520000</v>
+        <v>1209.52</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-493.746000</v>
+        <v>-493.74599999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>24638.424407</v>
+        <v>24638.424406999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>6.844007</v>
+        <v>6.8440070000000004</v>
       </c>
       <c r="BU4" s="1">
-        <v>1329.930000</v>
+        <v>1329.93</v>
       </c>
       <c r="BV4" s="1">
-        <v>-694.419000</v>
+        <v>-694.41899999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>24649.608698</v>
       </c>
       <c r="BY4" s="1">
-        <v>6.847114</v>
+        <v>6.8471140000000004</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1465.400000</v>
+        <v>1465.4</v>
       </c>
       <c r="CA4" s="1">
-        <v>-908.778000</v>
+        <v>-908.77800000000002</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>24660.893673</v>
+        <v>24660.893672999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>6.850248</v>
+        <v>6.8502479999999997</v>
       </c>
       <c r="CE4" s="1">
-        <v>1819.430000</v>
+        <v>1819.43</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1418.180000</v>
+        <v>-1418.18</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>24488.441646</v>
+        <v>24488.441645999999</v>
       </c>
       <c r="B5" s="1">
-        <v>6.802345</v>
+        <v>6.8023449999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>898.382000</v>
+        <v>898.38199999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-204.561000</v>
+        <v>-204.56100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>24498.825888</v>
+        <v>24498.825887999999</v>
       </c>
       <c r="G5" s="1">
-        <v>6.805229</v>
+        <v>6.8052289999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>917.201000</v>
+        <v>917.20100000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-171.248000</v>
+        <v>-171.24799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>24509.283538</v>
       </c>
       <c r="L5" s="1">
-        <v>6.808134</v>
+        <v>6.8081339999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>940.577000</v>
+        <v>940.577</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.051000</v>
+        <v>-121.051</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>24519.788836</v>
       </c>
       <c r="Q5" s="1">
-        <v>6.811052</v>
+        <v>6.8110520000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>947.309000</v>
+        <v>947.30899999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.385000</v>
+        <v>-104.38500000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>24530.947611</v>
@@ -1312,196 +1728,196 @@
         <v>6.814152</v>
       </c>
       <c r="W5" s="1">
-        <v>953.688000</v>
+        <v>953.68799999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.958000</v>
+        <v>-88.957999999999998</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>24541.352376</v>
+        <v>24541.352375999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.817042</v>
+        <v>6.8170419999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.695000</v>
+        <v>960.69500000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.041400</v>
+        <v>-77.041399999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>24551.903801</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.819973</v>
+        <v>6.8199730000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.389000</v>
+        <v>965.38900000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.632400</v>
+        <v>-74.632400000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>24563.013195</v>
       </c>
       <c r="AK5" s="1">
-        <v>6.823059</v>
+        <v>6.8230589999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.417000</v>
+        <v>972.41700000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.084600</v>
+        <v>-79.084599999999995</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>24573.625069</v>
+        <v>24573.625069000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>6.826007</v>
+        <v>6.8260069999999997</v>
       </c>
       <c r="AQ5" s="1">
-        <v>980.398000</v>
+        <v>980.39800000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.464400</v>
+        <v>-90.464399999999998</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>24584.610960</v>
+        <v>24584.610960000002</v>
       </c>
       <c r="AU5" s="1">
         <v>6.829059</v>
       </c>
       <c r="AV5" s="1">
-        <v>990.129000</v>
+        <v>990.12900000000002</v>
       </c>
       <c r="AW5" s="1">
-        <v>-107.922000</v>
+        <v>-107.922</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>24595.094897</v>
+        <v>24595.094896999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>6.831971</v>
+        <v>6.8319710000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>998.271000</v>
+        <v>998.27099999999996</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.414000</v>
+        <v>-123.414</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>24605.743048</v>
       </c>
       <c r="BE5" s="1">
-        <v>6.834929</v>
+        <v>6.8349289999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1036.430000</v>
+        <v>1036.43</v>
       </c>
       <c r="BG5" s="1">
-        <v>-194.795000</v>
+        <v>-194.79499999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>24616.795892</v>
+        <v>24616.795891999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>6.837999</v>
+        <v>6.8379989999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1102.320000</v>
+        <v>1102.32</v>
       </c>
       <c r="BL5" s="1">
-        <v>-310.809000</v>
+        <v>-310.80900000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>24628.035702</v>
+        <v>24628.035702000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>6.841121</v>
+        <v>6.8411210000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1209.480000</v>
+        <v>1209.48</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-493.780000</v>
+        <v>-493.78</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>24638.852951</v>
+        <v>24638.852951000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>6.844126</v>
+        <v>6.8441260000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1329.960000</v>
+        <v>1329.96</v>
       </c>
       <c r="BV5" s="1">
-        <v>-694.424000</v>
+        <v>-694.42399999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>24650.065512</v>
+        <v>24650.065512000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>6.847240</v>
+        <v>6.8472400000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1465.180000</v>
+        <v>1465.18</v>
       </c>
       <c r="CA5" s="1">
-        <v>-908.823000</v>
+        <v>-908.82299999999998</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>24661.439769</v>
+        <v>24661.439769000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>6.850400</v>
+        <v>6.8503999999999996</v>
       </c>
       <c r="CE5" s="1">
-        <v>1818.880000</v>
+        <v>1818.88</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1417.500000</v>
+        <v>-1417.5</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>24488.788386</v>
       </c>
@@ -1509,103 +1925,103 @@
         <v>6.802441</v>
       </c>
       <c r="C6" s="1">
-        <v>898.221000</v>
+        <v>898.221</v>
       </c>
       <c r="D6" s="1">
-        <v>-204.432000</v>
+        <v>-204.43199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>24499.172095</v>
+        <v>24499.172095000002</v>
       </c>
       <c r="G6" s="1">
         <v>6.805326</v>
       </c>
       <c r="H6" s="1">
-        <v>917.568000</v>
+        <v>917.56799999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.494000</v>
+        <v>-171.494</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>24509.935779</v>
+        <v>24509.935778999999</v>
       </c>
       <c r="L6" s="1">
-        <v>6.808315</v>
+        <v>6.8083150000000003</v>
       </c>
       <c r="M6" s="1">
-        <v>940.709000</v>
+        <v>940.70899999999995</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.062000</v>
+        <v>-121.062</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>24520.442035</v>
       </c>
       <c r="Q6" s="1">
-        <v>6.811234</v>
+        <v>6.8112339999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>947.250000</v>
+        <v>947.25</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.432000</v>
+        <v>-104.432</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>24531.326741</v>
+        <v>24531.326741000001</v>
       </c>
       <c r="V6" s="1">
-        <v>6.814257</v>
+        <v>6.8142569999999996</v>
       </c>
       <c r="W6" s="1">
-        <v>953.762000</v>
+        <v>953.76199999999994</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.911700</v>
+        <v>-88.911699999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>24541.702552</v>
+        <v>24541.702551999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>6.817140</v>
+        <v>6.8171400000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.705000</v>
+        <v>960.70500000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.912700</v>
+        <v>-76.912700000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>24552.251501</v>
+        <v>24552.251500999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.820070</v>
+        <v>6.8200700000000003</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.367000</v>
+        <v>965.36699999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.599700</v>
+        <v>-74.599699999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>24563.359868</v>
@@ -1614,1827 +2030,1827 @@
         <v>6.823156</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.430000</v>
+        <v>972.43</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.101200</v>
+        <v>-79.101200000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>24573.985693</v>
+        <v>24573.985692999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>6.826107</v>
+        <v>6.8261070000000004</v>
       </c>
       <c r="AQ6" s="1">
-        <v>980.412000</v>
+        <v>980.41200000000003</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.475600</v>
+        <v>-90.4756</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>24585.032589</v>
+        <v>24585.032588999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>6.829176</v>
+        <v>6.8291760000000004</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.129000</v>
+        <v>990.12900000000002</v>
       </c>
       <c r="AW6" s="1">
-        <v>-107.936000</v>
+        <v>-107.93600000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>24595.392000</v>
+        <v>24595.392</v>
       </c>
       <c r="AZ6" s="1">
-        <v>6.832053</v>
+        <v>6.8320530000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>998.277000</v>
+        <v>998.27700000000004</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.416000</v>
+        <v>-123.416</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>24606.040115</v>
       </c>
       <c r="BE6" s="1">
-        <v>6.835011</v>
+        <v>6.8350109999999997</v>
       </c>
       <c r="BF6" s="1">
-        <v>1036.420000</v>
+        <v>1036.42</v>
       </c>
       <c r="BG6" s="1">
-        <v>-194.783000</v>
+        <v>-194.78299999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>24617.179796</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.838105</v>
+        <v>6.8381049999999997</v>
       </c>
       <c r="BK6" s="1">
-        <v>1102.340000</v>
+        <v>1102.3399999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.809000</v>
+        <v>-310.80900000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>24628.457797</v>
+        <v>24628.457796999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>6.841238</v>
+        <v>6.8412379999999997</v>
       </c>
       <c r="BP6" s="1">
-        <v>1209.480000</v>
+        <v>1209.48</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-493.774000</v>
+        <v>-493.774</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>24639.263638</v>
       </c>
       <c r="BT6" s="1">
-        <v>6.844240</v>
+        <v>6.8442400000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1330.110000</v>
+        <v>1330.11</v>
       </c>
       <c r="BV6" s="1">
-        <v>-694.388000</v>
+        <v>-694.38800000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>24650.513400</v>
+        <v>24650.5134</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.847365</v>
+        <v>6.8473649999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1465.230000</v>
+        <v>1465.23</v>
       </c>
       <c r="CA6" s="1">
-        <v>-908.854000</v>
+        <v>-908.85400000000004</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>24661.966552</v>
+        <v>24661.966552000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.850546</v>
+        <v>6.8505459999999996</v>
       </c>
       <c r="CE6" s="1">
-        <v>1819.890000</v>
+        <v>1819.89</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1418.630000</v>
+        <v>-1418.63</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>24489.443564</v>
+        <v>24489.443564000001</v>
       </c>
       <c r="B7" s="1">
-        <v>6.802623</v>
+        <v>6.8026229999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>898.139000</v>
+        <v>898.13900000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-204.534000</v>
+        <v>-204.53399999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>24499.825822</v>
+        <v>24499.825821999999</v>
       </c>
       <c r="G7" s="1">
-        <v>6.805507</v>
+        <v>6.8055070000000004</v>
       </c>
       <c r="H7" s="1">
-        <v>917.538000</v>
+        <v>917.53800000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.697000</v>
+        <v>-171.697</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>24510.320674</v>
+        <v>24510.320673999999</v>
       </c>
       <c r="L7" s="1">
-        <v>6.808422</v>
+        <v>6.8084220000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>940.724000</v>
+        <v>940.72400000000005</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.985000</v>
+        <v>-120.985</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>24520.833875</v>
       </c>
       <c r="Q7" s="1">
-        <v>6.811343</v>
+        <v>6.8113429999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>947.256000</v>
+        <v>947.25599999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.406000</v>
+        <v>-104.40600000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>24531.668512</v>
       </c>
       <c r="V7" s="1">
-        <v>6.814352</v>
+        <v>6.8143520000000004</v>
       </c>
       <c r="W7" s="1">
-        <v>953.663000</v>
+        <v>953.66300000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.937100</v>
+        <v>-88.937100000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>24542.050742</v>
+        <v>24542.050741999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.817236</v>
+        <v>6.8172360000000003</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.854000</v>
+        <v>960.85400000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.991300</v>
+        <v>-76.991299999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>24552.594202</v>
       </c>
       <c r="AF7" s="1">
-        <v>6.820165</v>
+        <v>6.8201650000000003</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.354000</v>
+        <v>965.35400000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.592700</v>
+        <v>-74.592699999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>24563.780970</v>
+        <v>24563.78097</v>
       </c>
       <c r="AK7" s="1">
-        <v>6.823272</v>
+        <v>6.8232720000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.410000</v>
+        <v>972.41</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.077600</v>
+        <v>-79.077600000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>24574.418172</v>
+        <v>24574.418172000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>6.826227</v>
+        <v>6.8262270000000003</v>
       </c>
       <c r="AQ7" s="1">
-        <v>980.372000</v>
+        <v>980.37199999999996</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.480200</v>
+        <v>-90.480199999999996</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>24585.340109</v>
+        <v>24585.340109000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.829261</v>
+        <v>6.8292609999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>990.139000</v>
+        <v>990.13900000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-107.935000</v>
+        <v>-107.935</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>24595.750607</v>
+        <v>24595.750607000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>6.832153</v>
+        <v>6.8321529999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>998.274000</v>
+        <v>998.274</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.432000</v>
+        <v>-123.432</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>24606.402195</v>
+        <v>24606.402194999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>6.835112</v>
+        <v>6.8351119999999996</v>
       </c>
       <c r="BF7" s="1">
-        <v>1036.400000</v>
+        <v>1036.4000000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-194.807000</v>
+        <v>-194.80699999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>24617.569619</v>
+        <v>24617.569619000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>6.838214</v>
+        <v>6.8382139999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1102.330000</v>
+        <v>1102.33</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.787000</v>
+        <v>-310.78699999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>24629.189923</v>
+        <v>24629.189923000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.841442</v>
+        <v>6.8414419999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1209.530000</v>
+        <v>1209.53</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-493.727000</v>
+        <v>-493.72699999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>24639.694662</v>
+        <v>24639.694662000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>6.844360</v>
+        <v>6.84436</v>
       </c>
       <c r="BU7" s="1">
-        <v>1330.130000</v>
+        <v>1330.13</v>
       </c>
       <c r="BV7" s="1">
-        <v>-694.396000</v>
+        <v>-694.39599999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>24650.971207</v>
+        <v>24650.971206999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>6.847492</v>
+        <v>6.8474919999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1465.240000</v>
+        <v>1465.24</v>
       </c>
       <c r="CA7" s="1">
-        <v>-908.796000</v>
+        <v>-908.79600000000005</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>24662.487819</v>
+        <v>24662.487819000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>6.850691</v>
+        <v>6.8506910000000003</v>
       </c>
       <c r="CE7" s="1">
-        <v>1820.830000</v>
+        <v>1820.83</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1417.840000</v>
+        <v>-1417.84</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>24489.816060</v>
+        <v>24489.816060000001</v>
       </c>
       <c r="B8" s="1">
         <v>6.802727</v>
       </c>
       <c r="C8" s="1">
-        <v>898.185000</v>
+        <v>898.18499999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>-204.477000</v>
+        <v>-204.477</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>24500.205791</v>
       </c>
       <c r="G8" s="1">
-        <v>6.805613</v>
+        <v>6.8056130000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>917.056000</v>
+        <v>917.05600000000004</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.698000</v>
+        <v>-171.69800000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>24510.665392</v>
+        <v>24510.665391999999</v>
       </c>
       <c r="L8" s="1">
-        <v>6.808518</v>
+        <v>6.8085180000000003</v>
       </c>
       <c r="M8" s="1">
-        <v>940.508000</v>
+        <v>940.50800000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.025000</v>
+        <v>-121.02500000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>24521.181586</v>
+        <v>24521.181585999999</v>
       </c>
       <c r="Q8" s="1">
         <v>6.811439</v>
       </c>
       <c r="R8" s="1">
-        <v>947.241000</v>
+        <v>947.24099999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.383000</v>
+        <v>-104.383</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>24532.011748</v>
+        <v>24532.011748000001</v>
       </c>
       <c r="V8" s="1">
-        <v>6.814448</v>
+        <v>6.8144479999999996</v>
       </c>
       <c r="W8" s="1">
-        <v>953.741000</v>
+        <v>953.74099999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.931500</v>
+        <v>-88.9315</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>24542.476824</v>
+        <v>24542.476824000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>6.817355</v>
+        <v>6.8173550000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.769000</v>
+        <v>960.76900000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.972300</v>
+        <v>-76.972300000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>24553.012371</v>
+        <v>24553.012371000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.820281</v>
+        <v>6.8202809999999996</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.307000</v>
+        <v>965.30700000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.604100</v>
+        <v>-74.604100000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>24564.059225</v>
+        <v>24564.059225000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.823350</v>
+        <v>6.8233499999999996</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.421000</v>
+        <v>972.42100000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.072100</v>
+        <v>-79.072100000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>24574.704365</v>
+        <v>24574.704365000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>6.826307</v>
+        <v>6.8263069999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>980.407000</v>
+        <v>980.40700000000004</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.469400</v>
+        <v>-90.469399999999993</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>24585.706126</v>
+        <v>24585.706126000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>6.829363</v>
+        <v>6.8293629999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>990.123000</v>
+        <v>990.12300000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-107.929000</v>
+        <v>-107.929</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>24596.108529</v>
+        <v>24596.108529000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6.832252</v>
+        <v>6.8322520000000004</v>
       </c>
       <c r="BA8" s="1">
-        <v>998.271000</v>
+        <v>998.27099999999996</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.394000</v>
+        <v>-123.39400000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>24606.765265</v>
+        <v>24606.765265000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>6.835213</v>
+        <v>6.8352130000000004</v>
       </c>
       <c r="BF8" s="1">
-        <v>1036.430000</v>
+        <v>1036.43</v>
       </c>
       <c r="BG8" s="1">
-        <v>-194.808000</v>
+        <v>-194.80799999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>24618.320561</v>
       </c>
       <c r="BJ8" s="1">
-        <v>6.838422</v>
+        <v>6.8384219999999996</v>
       </c>
       <c r="BK8" s="1">
-        <v>1102.340000</v>
+        <v>1102.3399999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.820000</v>
+        <v>-310.82</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>24629.693828</v>
+        <v>24629.693827999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>6.841582</v>
+        <v>6.8415819999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1209.500000</v>
+        <v>1209.5</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-493.759000</v>
+        <v>-493.75900000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>24640.122246</v>
+        <v>24640.122245999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>6.844478</v>
+        <v>6.8444779999999996</v>
       </c>
       <c r="BU8" s="1">
-        <v>1330.230000</v>
+        <v>1330.23</v>
       </c>
       <c r="BV8" s="1">
-        <v>-694.404000</v>
+        <v>-694.404</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>24651.417606</v>
+        <v>24651.417605999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>6.847616</v>
+        <v>6.8476160000000004</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1465.270000</v>
+        <v>1465.27</v>
       </c>
       <c r="CA8" s="1">
-        <v>-908.900000</v>
+        <v>-908.9</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>24663.006174</v>
+        <v>24663.006173999998</v>
       </c>
       <c r="CD8" s="1">
         <v>6.850835</v>
       </c>
       <c r="CE8" s="1">
-        <v>1819.900000</v>
+        <v>1819.9</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1416.960000</v>
+        <v>-1416.96</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>24490.164290</v>
+        <v>24490.164290000001</v>
       </c>
       <c r="B9" s="1">
-        <v>6.802823</v>
+        <v>6.8028230000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>898.336000</v>
+        <v>898.33600000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-204.592000</v>
+        <v>-204.59200000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>24500.550481</v>
+        <v>24500.550480999998</v>
       </c>
       <c r="G9" s="1">
-        <v>6.805708</v>
+        <v>6.8057080000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>917.300000</v>
+        <v>917.3</v>
       </c>
       <c r="I9" s="1">
-        <v>-171.163000</v>
+        <v>-171.16300000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>24511.007663</v>
       </c>
       <c r="L9" s="1">
-        <v>6.808613</v>
+        <v>6.8086130000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>940.476000</v>
+        <v>940.476</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.232000</v>
+        <v>-121.232</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>24521.866083</v>
+        <v>24521.866083000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.811629</v>
+        <v>6.8116289999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>947.287000</v>
+        <v>947.28700000000003</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.393000</v>
+        <v>-104.393</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>24532.428851</v>
+        <v>24532.428851000001</v>
       </c>
       <c r="V9" s="1">
-        <v>6.814564</v>
+        <v>6.8145639999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>953.763000</v>
+        <v>953.76300000000003</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.992600</v>
+        <v>-88.992599999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>24542.757045</v>
+        <v>24542.757044999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.817433</v>
+        <v>6.8174330000000003</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.716000</v>
+        <v>960.71600000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.037300</v>
+        <v>-77.037300000000002</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>24553.293561</v>
+        <v>24553.293560999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.820359</v>
+        <v>6.8203589999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.290000</v>
+        <v>965.29</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.616100</v>
+        <v>-74.616100000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>24564.405433</v>
       </c>
       <c r="AK9" s="1">
-        <v>6.823446</v>
+        <v>6.8234459999999997</v>
       </c>
       <c r="AL9" s="1">
-        <v>972.423000</v>
+        <v>972.423</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.103600</v>
+        <v>-79.1036</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>24575.064999</v>
+        <v>24575.064998999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>6.826407</v>
+        <v>6.8264069999999997</v>
       </c>
       <c r="AQ9" s="1">
-        <v>980.404000</v>
+        <v>980.404</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.452700</v>
+        <v>-90.452699999999993</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>24586.070188</v>
+        <v>24586.070188000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>6.829464</v>
+        <v>6.8294639999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>990.149000</v>
+        <v>990.149</v>
       </c>
       <c r="AW9" s="1">
-        <v>-107.931000</v>
+        <v>-107.931</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>24596.825108</v>
+        <v>24596.825108000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>6.832451</v>
+        <v>6.8324509999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>998.264000</v>
+        <v>998.26400000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.412000</v>
+        <v>-123.41200000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>24607.489425</v>
       </c>
       <c r="BE9" s="1">
-        <v>6.835414</v>
+        <v>6.8354140000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1036.420000</v>
+        <v>1036.42</v>
       </c>
       <c r="BG9" s="1">
-        <v>-194.798000</v>
+        <v>-194.798</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>24618.722321</v>
+        <v>24618.722321000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.838534</v>
+        <v>6.8385340000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1102.340000</v>
+        <v>1102.3399999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.824000</v>
+        <v>-310.82400000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>24630.101042</v>
+        <v>24630.101041999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>6.841695</v>
+        <v>6.8416949999999996</v>
       </c>
       <c r="BP9" s="1">
-        <v>1209.500000</v>
+        <v>1209.5</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-493.764000</v>
+        <v>-493.76400000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>24640.534401</v>
+        <v>24640.534401000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.844593</v>
+        <v>6.8445929999999997</v>
       </c>
       <c r="BU9" s="1">
-        <v>1330.300000</v>
+        <v>1330.3</v>
       </c>
       <c r="BV9" s="1">
-        <v>-694.430000</v>
+        <v>-694.43</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>24652.177477</v>
+        <v>24652.177477000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>6.847827</v>
+        <v>6.8478269999999997</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1465.240000</v>
+        <v>1465.24</v>
       </c>
       <c r="CA9" s="1">
-        <v>-908.794000</v>
+        <v>-908.79399999999998</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>24663.828998</v>
+        <v>24663.828998000001</v>
       </c>
       <c r="CD9" s="1">
         <v>6.851064</v>
       </c>
       <c r="CE9" s="1">
-        <v>1819.310000</v>
+        <v>1819.31</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1417.920000</v>
+        <v>-1417.92</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>24490.505500</v>
+        <v>24490.505499999999</v>
       </c>
       <c r="B10" s="1">
         <v>6.802918</v>
       </c>
       <c r="C10" s="1">
-        <v>898.400000</v>
+        <v>898.4</v>
       </c>
       <c r="D10" s="1">
-        <v>-203.401000</v>
+        <v>-203.40100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>24500.895197</v>
+        <v>24500.895197000002</v>
       </c>
       <c r="G10" s="1">
-        <v>6.805804</v>
+        <v>6.8058040000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>917.060000</v>
+        <v>917.06</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.679000</v>
+        <v>-171.679</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>24511.419343</v>
+        <v>24511.419343000001</v>
       </c>
       <c r="L10" s="1">
-        <v>6.808728</v>
+        <v>6.8087280000000003</v>
       </c>
       <c r="M10" s="1">
-        <v>940.655000</v>
+        <v>940.65499999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.118000</v>
+        <v>-121.11799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>24522.225184</v>
+        <v>24522.225183999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.811729</v>
+        <v>6.8117289999999997</v>
       </c>
       <c r="R10" s="1">
-        <v>947.313000</v>
+        <v>947.31299999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.383000</v>
+        <v>-104.383</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>24532.722020</v>
+        <v>24532.722020000001</v>
       </c>
       <c r="V10" s="1">
-        <v>6.814645</v>
+        <v>6.8146449999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>953.779000</v>
+        <v>953.779</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.920200</v>
+        <v>-88.920199999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>24543.105271</v>
       </c>
       <c r="AA10" s="1">
-        <v>6.817529</v>
+        <v>6.8175290000000004</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.691000</v>
+        <v>960.69100000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.944600</v>
+        <v>-76.944599999999994</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>24553.634807</v>
+        <v>24553.634806999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.820454</v>
+        <v>6.8204539999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.367000</v>
+        <v>965.36699999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.628600</v>
+        <v>-74.628600000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>24564.755609</v>
       </c>
       <c r="AK10" s="1">
-        <v>6.823543</v>
+        <v>6.8235429999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.425000</v>
+        <v>972.42499999999995</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.080900</v>
+        <v>-79.0809</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>24575.790106</v>
       </c>
       <c r="AP10" s="1">
-        <v>6.826608</v>
+        <v>6.8266080000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>980.392000</v>
+        <v>980.39200000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.474100</v>
+        <v>-90.474100000000007</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>24586.799307</v>
+        <v>24586.799307000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.829666</v>
+        <v>6.8296659999999996</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.116000</v>
+        <v>990.11599999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-107.943000</v>
+        <v>-107.943</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>24597.186526</v>
+        <v>24597.186526000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>6.832552</v>
+        <v>6.8325519999999997</v>
       </c>
       <c r="BA10" s="1">
-        <v>998.285000</v>
+        <v>998.28499999999997</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.415000</v>
+        <v>-123.41500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>24607.877830</v>
+        <v>24607.877830000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>6.835522</v>
+        <v>6.8355220000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1036.400000</v>
+        <v>1036.4000000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-194.789000</v>
+        <v>-194.78899999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>24619.095345</v>
+        <v>24619.095345000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>6.838638</v>
+        <v>6.8386380000000004</v>
       </c>
       <c r="BK10" s="1">
-        <v>1102.340000</v>
+        <v>1102.3399999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-310.780000</v>
+        <v>-310.77999999999997</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>24630.817266</v>
+        <v>24630.817265999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>6.841894</v>
+        <v>6.8418939999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1209.560000</v>
+        <v>1209.56</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-493.761000</v>
+        <v>-493.76100000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>24641.278388</v>
+        <v>24641.278387999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>6.844800</v>
+        <v>6.8448000000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1330.350000</v>
+        <v>1330.35</v>
       </c>
       <c r="BV10" s="1">
-        <v>-694.466000</v>
+        <v>-694.46600000000001</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>24652.320325</v>
+        <v>24652.320325000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.847867</v>
+        <v>6.8478669999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1465.230000</v>
+        <v>1465.23</v>
       </c>
       <c r="CA10" s="1">
-        <v>-908.893000</v>
+        <v>-908.89300000000003</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>24664.039834</v>
+        <v>24664.039833999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>6.851122</v>
+        <v>6.8511220000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>1820.190000</v>
+        <v>1820.19</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1418.480000</v>
+        <v>-1418.48</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>24490.935545</v>
       </c>
       <c r="B11" s="1">
-        <v>6.803038</v>
+        <v>6.8030379999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>899.286000</v>
+        <v>899.28599999999994</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.862000</v>
+        <v>-202.86199999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>24501.308861</v>
+        <v>24501.308861000001</v>
       </c>
       <c r="G11" s="1">
-        <v>6.805919</v>
+        <v>6.8059190000000003</v>
       </c>
       <c r="H11" s="1">
-        <v>917.537000</v>
+        <v>917.53700000000003</v>
       </c>
       <c r="I11" s="1">
-        <v>-171.684000</v>
+        <v>-171.684</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>24511.701535</v>
       </c>
       <c r="L11" s="1">
-        <v>6.808806</v>
+        <v>6.8088059999999997</v>
       </c>
       <c r="M11" s="1">
-        <v>940.656000</v>
+        <v>940.65599999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.094000</v>
+        <v>-121.09399999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>24522.577312</v>
+        <v>24522.577312000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.811827</v>
+        <v>6.8118270000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>947.287000</v>
+        <v>947.28700000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.408000</v>
+        <v>-104.408</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>24533.063234</v>
+        <v>24533.063234000001</v>
       </c>
       <c r="V11" s="1">
-        <v>6.814740</v>
+        <v>6.8147399999999996</v>
       </c>
       <c r="W11" s="1">
-        <v>953.732000</v>
+        <v>953.73199999999997</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.907400</v>
+        <v>-88.907399999999996</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>24543.456406</v>
+        <v>24543.456406000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.817627</v>
+        <v>6.8176269999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.714000</v>
+        <v>960.71400000000006</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.019700</v>
+        <v>-77.0197</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>24553.978053</v>
+        <v>24553.978052999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.820549</v>
+        <v>6.8205489999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.356000</v>
+        <v>965.35599999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.568800</v>
+        <v>-74.568799999999996</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>24565.451992</v>
+        <v>24565.451991999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>6.823737</v>
+        <v>6.8237370000000004</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.422000</v>
+        <v>972.42200000000003</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.075100</v>
+        <v>-79.075100000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>24576.165609</v>
       </c>
       <c r="AP11" s="1">
-        <v>6.826713</v>
+        <v>6.8267129999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>980.412000</v>
+        <v>980.41200000000003</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.465500</v>
+        <v>-90.465500000000006</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>24587.191644</v>
+        <v>24587.191643999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>6.829775</v>
+        <v>6.8297749999999997</v>
       </c>
       <c r="AV11" s="1">
-        <v>990.133000</v>
+        <v>990.13300000000004</v>
       </c>
       <c r="AW11" s="1">
-        <v>-107.937000</v>
+        <v>-107.937</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>24597.543682</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6.832651</v>
+        <v>6.8326510000000003</v>
       </c>
       <c r="BA11" s="1">
-        <v>998.276000</v>
+        <v>998.27599999999995</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.413000</v>
+        <v>-123.413</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>24608.237391</v>
+        <v>24608.237390999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>6.835621</v>
+        <v>6.8356209999999997</v>
       </c>
       <c r="BF11" s="1">
-        <v>1036.410000</v>
+        <v>1036.4100000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-194.796000</v>
+        <v>-194.79599999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>24619.789216</v>
+        <v>24619.789216000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>6.838830</v>
+        <v>6.8388299999999997</v>
       </c>
       <c r="BK11" s="1">
-        <v>1102.330000</v>
+        <v>1102.33</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.796000</v>
+        <v>-310.79599999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>24630.927410</v>
+        <v>24630.92741</v>
       </c>
       <c r="BO11" s="1">
-        <v>6.841924</v>
+        <v>6.8419239999999997</v>
       </c>
       <c r="BP11" s="1">
-        <v>1209.530000</v>
+        <v>1209.53</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-493.760000</v>
+        <v>-493.76</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>24641.392468</v>
+        <v>24641.392467999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>6.844831</v>
+        <v>6.8448310000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1330.410000</v>
+        <v>1330.41</v>
       </c>
       <c r="BV11" s="1">
-        <v>-694.503000</v>
+        <v>-694.50300000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>24652.742916</v>
+        <v>24652.742915999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>6.847984</v>
+        <v>6.8479840000000003</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1465.330000</v>
+        <v>1465.33</v>
       </c>
       <c r="CA11" s="1">
-        <v>-908.882000</v>
+        <v>-908.88199999999995</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>24664.556171</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.851266</v>
+        <v>6.8512659999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1819.790000</v>
+        <v>1819.79</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1418.680000</v>
+        <v>-1418.68</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>24491.202421</v>
+        <v>24491.202421000002</v>
       </c>
       <c r="B12" s="1">
-        <v>6.803112</v>
+        <v>6.8031119999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>899.280000</v>
+        <v>899.28</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.879000</v>
+        <v>-202.87899999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>24501.585132</v>
       </c>
       <c r="G12" s="1">
-        <v>6.805996</v>
+        <v>6.8059960000000004</v>
       </c>
       <c r="H12" s="1">
-        <v>917.260000</v>
+        <v>917.26</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.491000</v>
+        <v>-171.49100000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>24512.046750</v>
+        <v>24512.046750000001</v>
       </c>
       <c r="L12" s="1">
-        <v>6.808902</v>
+        <v>6.8089019999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>940.565000</v>
+        <v>940.56500000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.229000</v>
+        <v>-121.229</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>24522.925505</v>
+        <v>24522.925504999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.811924</v>
+        <v>6.8119240000000003</v>
       </c>
       <c r="R12" s="1">
-        <v>947.249000</v>
+        <v>947.24900000000002</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.395000</v>
+        <v>-104.395</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>24533.407990</v>
+        <v>24533.40799</v>
       </c>
       <c r="V12" s="1">
-        <v>6.814836</v>
+        <v>6.8148359999999997</v>
       </c>
       <c r="W12" s="1">
-        <v>953.723000</v>
+        <v>953.72299999999996</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.009600</v>
+        <v>-89.009600000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>24544.149845</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.817819</v>
+        <v>6.8178190000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.743000</v>
+        <v>960.74300000000005</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.019300</v>
+        <v>-77.019300000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>24554.664007</v>
+        <v>24554.664006999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.820740</v>
+        <v>6.8207399999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.330000</v>
+        <v>965.33</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.594100</v>
+        <v>-74.594099999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>24565.801175</v>
+        <v>24565.801175000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>6.823834</v>
+        <v>6.8238339999999997</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.409000</v>
+        <v>972.40899999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.076900</v>
+        <v>-79.076899999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>24576.524714</v>
+        <v>24576.524713999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>6.826812</v>
+        <v>6.8268120000000003</v>
       </c>
       <c r="AQ12" s="1">
-        <v>980.401000</v>
+        <v>980.40099999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.457300</v>
+        <v>-90.457300000000004</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>24587.556234</v>
       </c>
       <c r="AU12" s="1">
-        <v>6.829877</v>
+        <v>6.8298769999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>990.138000</v>
+        <v>990.13800000000003</v>
       </c>
       <c r="AW12" s="1">
-        <v>-107.947000</v>
+        <v>-107.947</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>24598.213742</v>
       </c>
       <c r="AZ12" s="1">
-        <v>6.832837</v>
+        <v>6.8328369999999996</v>
       </c>
       <c r="BA12" s="1">
-        <v>998.282000</v>
+        <v>998.28200000000004</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.415000</v>
+        <v>-123.41500000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>24608.912943</v>
+        <v>24608.912942999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>6.835809</v>
+        <v>6.8358090000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1036.410000</v>
+        <v>1036.4100000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-194.815000</v>
+        <v>-194.815</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>24620.254961</v>
+        <v>24620.254960999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>6.838960</v>
+        <v>6.8389600000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1102.340000</v>
+        <v>1102.3399999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-310.800000</v>
+        <v>-310.8</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>24631.325168</v>
+        <v>24631.325167999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>6.842035</v>
+        <v>6.8420350000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1209.500000</v>
+        <v>1209.5</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-493.766000</v>
+        <v>-493.76600000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>24641.830466</v>
+        <v>24641.830465999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>6.844953</v>
+        <v>6.8449530000000003</v>
       </c>
       <c r="BU12" s="1">
-        <v>1330.480000</v>
+        <v>1330.48</v>
       </c>
       <c r="BV12" s="1">
-        <v>-694.551000</v>
+        <v>-694.55100000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>24653.164020</v>
+        <v>24653.16402</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.848101</v>
+        <v>6.8481009999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1465.250000</v>
+        <v>1465.25</v>
       </c>
       <c r="CA12" s="1">
-        <v>-908.839000</v>
+        <v>-908.83900000000006</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>24665.109204</v>
       </c>
       <c r="CD12" s="1">
-        <v>6.851419</v>
+        <v>6.8514189999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1819.240000</v>
+        <v>1819.24</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1417.940000</v>
+        <v>-1417.94</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>24491.545114</v>
       </c>
       <c r="B13" s="1">
-        <v>6.803207</v>
+        <v>6.8032069999999996</v>
       </c>
       <c r="C13" s="1">
-        <v>899.276000</v>
+        <v>899.27599999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.969000</v>
+        <v>-202.96899999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>24501.928896</v>
+        <v>24501.928896000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6.806091</v>
+        <v>6.8060910000000003</v>
       </c>
       <c r="H13" s="1">
-        <v>917.490000</v>
+        <v>917.49</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.774000</v>
+        <v>-171.774</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>24512.390015</v>
+        <v>24512.390015000001</v>
       </c>
       <c r="L13" s="1">
-        <v>6.808997</v>
+        <v>6.8089969999999997</v>
       </c>
       <c r="M13" s="1">
-        <v>940.566000</v>
+        <v>940.56600000000003</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.028000</v>
+        <v>-121.02800000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>24523.623407</v>
+        <v>24523.623406999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.812118</v>
+        <v>6.8121179999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>947.260000</v>
+        <v>947.26</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.395000</v>
+        <v>-104.395</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>24534.094417</v>
       </c>
       <c r="V13" s="1">
-        <v>6.815026</v>
+        <v>6.8150259999999996</v>
       </c>
       <c r="W13" s="1">
-        <v>953.656000</v>
+        <v>953.65599999999995</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.012800</v>
+        <v>-89.012799999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>24544.501973</v>
+        <v>24544.501972999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>6.817917</v>
+        <v>6.8179169999999996</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.738000</v>
+        <v>960.73800000000006</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.155500</v>
+        <v>-77.155500000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>24555.012695</v>
+        <v>24555.012695000001</v>
       </c>
       <c r="AF13" s="1">
         <v>6.820837</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.340000</v>
+        <v>965.34</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.626400</v>
+        <v>-74.626400000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>24566.147384</v>
       </c>
       <c r="AK13" s="1">
-        <v>6.823930</v>
+        <v>6.8239299999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.417000</v>
+        <v>972.41700000000003</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.089100</v>
+        <v>-79.089100000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>24577.199240</v>
+        <v>24577.199240000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>6.827000</v>
+        <v>6.827</v>
       </c>
       <c r="AQ13" s="1">
-        <v>980.398000</v>
+        <v>980.39800000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.457700</v>
+        <v>-90.457700000000003</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>24588.228281</v>
@@ -3443,1026 +3859,1026 @@
         <v>6.830063</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.127000</v>
+        <v>990.12699999999995</v>
       </c>
       <c r="AW13" s="1">
-        <v>-107.939000</v>
+        <v>-107.93899999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>24598.621452</v>
+        <v>24598.621451999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>6.832950</v>
+        <v>6.8329500000000003</v>
       </c>
       <c r="BA13" s="1">
-        <v>998.283000</v>
+        <v>998.28300000000002</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.430000</v>
+        <v>-123.43</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>24609.348963</v>
       </c>
       <c r="BE13" s="1">
-        <v>6.835930</v>
+        <v>6.8359300000000003</v>
       </c>
       <c r="BF13" s="1">
-        <v>1036.420000</v>
+        <v>1036.42</v>
       </c>
       <c r="BG13" s="1">
-        <v>-194.787000</v>
+        <v>-194.78700000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>24620.641384</v>
+        <v>24620.641383999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>6.839067</v>
       </c>
       <c r="BK13" s="1">
-        <v>1102.360000</v>
+        <v>1102.3599999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.807000</v>
+        <v>-310.80700000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>24631.724480</v>
+        <v>24631.724480000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>6.842146</v>
+        <v>6.8421459999999996</v>
       </c>
       <c r="BP13" s="1">
-        <v>1209.520000</v>
+        <v>1209.52</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-493.784000</v>
+        <v>-493.78399999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>24642.243638</v>
       </c>
       <c r="BT13" s="1">
-        <v>6.845068</v>
+        <v>6.8450680000000004</v>
       </c>
       <c r="BU13" s="1">
-        <v>1330.430000</v>
+        <v>1330.43</v>
       </c>
       <c r="BV13" s="1">
-        <v>-694.714000</v>
+        <v>-694.71400000000006</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>24653.600995</v>
+        <v>24653.600995000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.848222</v>
+        <v>6.8482219999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1465.210000</v>
+        <v>1465.21</v>
       </c>
       <c r="CA13" s="1">
-        <v>-908.810000</v>
+        <v>-908.81</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>24665.638403</v>
+        <v>24665.638403000001</v>
       </c>
       <c r="CD13" s="1">
         <v>6.851566</v>
       </c>
       <c r="CE13" s="1">
-        <v>1820.290000</v>
+        <v>1820.29</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1418.440000</v>
+        <v>-1418.44</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>24491.888879</v>
+        <v>24491.888878999998</v>
       </c>
       <c r="B14" s="1">
-        <v>6.803302</v>
+        <v>6.8033020000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>899.344000</v>
+        <v>899.34400000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.962000</v>
+        <v>-202.96199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>24502.272624</v>
+        <v>24502.272624000001</v>
       </c>
       <c r="G14" s="1">
-        <v>6.806187</v>
+        <v>6.8061870000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>917.330000</v>
+        <v>917.33</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.386000</v>
+        <v>-171.386</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>24513.082584</v>
       </c>
       <c r="L14" s="1">
-        <v>6.809190</v>
+        <v>6.8091900000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>940.536000</v>
+        <v>940.53599999999994</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.072000</v>
+        <v>-121.072</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>24523.970111</v>
+        <v>24523.970110999999</v>
       </c>
       <c r="Q14" s="1">
         <v>6.812214</v>
       </c>
       <c r="R14" s="1">
-        <v>947.287000</v>
+        <v>947.28700000000003</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.383000</v>
+        <v>-104.383</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>24534.438642</v>
+        <v>24534.438642000001</v>
       </c>
       <c r="V14" s="1">
-        <v>6.815122</v>
+        <v>6.8151219999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>953.732000</v>
+        <v>953.73199999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.990600</v>
+        <v>-88.990600000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>24544.849203</v>
+        <v>24544.849203000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>6.818014</v>
+        <v>6.8180139999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.708000</v>
+        <v>960.70799999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.056800</v>
+        <v>-77.056799999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>24555.351957</v>
+        <v>24555.351956999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.820931</v>
+        <v>6.8209309999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.295000</v>
+        <v>965.29499999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.604400</v>
+        <v>-74.604399999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>24566.814007</v>
+        <v>24566.814007000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>6.824115</v>
+        <v>6.8241149999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.411000</v>
+        <v>972.41099999999994</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.066100</v>
+        <v>-79.066100000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>24577.609432</v>
+        <v>24577.609432000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.827114</v>
+        <v>6.8271139999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>980.382000</v>
+        <v>980.38199999999995</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.482700</v>
+        <v>-90.482699999999994</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>24588.685097</v>
+        <v>24588.685097000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>6.830190</v>
+        <v>6.83019</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.137000</v>
+        <v>990.13699999999994</v>
       </c>
       <c r="AW14" s="1">
-        <v>-107.938000</v>
+        <v>-107.938</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>24599.006844</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.833057</v>
+        <v>6.8330570000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>998.271000</v>
+        <v>998.27099999999996</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.428000</v>
+        <v>-123.428</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>24609.709517</v>
+        <v>24609.709516999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.836030</v>
+        <v>6.8360300000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1036.420000</v>
+        <v>1036.42</v>
       </c>
       <c r="BG14" s="1">
-        <v>-194.801000</v>
+        <v>-194.80099999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>24621.017312</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.839171</v>
+        <v>6.8391710000000003</v>
       </c>
       <c r="BK14" s="1">
-        <v>1102.380000</v>
+        <v>1102.3800000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-310.810000</v>
+        <v>-310.81</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>24632.145092</v>
+        <v>24632.145091999999</v>
       </c>
       <c r="BO14" s="1">
         <v>6.842263</v>
       </c>
       <c r="BP14" s="1">
-        <v>1209.510000</v>
+        <v>1209.51</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-493.731000</v>
+        <v>-493.73099999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>24642.673176</v>
       </c>
       <c r="BT14" s="1">
-        <v>6.845187</v>
+        <v>6.8451870000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1330.480000</v>
+        <v>1330.48</v>
       </c>
       <c r="BV14" s="1">
-        <v>-694.753000</v>
+        <v>-694.75300000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>24654.034034</v>
       </c>
       <c r="BY14" s="1">
-        <v>6.848343</v>
+        <v>6.8483429999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1465.220000</v>
+        <v>1465.22</v>
       </c>
       <c r="CA14" s="1">
-        <v>-908.904000</v>
+        <v>-908.904</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>24666.158211</v>
+        <v>24666.158211000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>6.851711</v>
+        <v>6.8517109999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1820.250000</v>
+        <v>1820.25</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1416.860000</v>
+        <v>-1416.86</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>24492.569880</v>
+        <v>24492.569879999999</v>
       </c>
       <c r="B15" s="1">
-        <v>6.803492</v>
+        <v>6.8034920000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>899.550000</v>
+        <v>899.55</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.736000</v>
+        <v>-202.73599999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>24502.961071</v>
+        <v>24502.961071000002</v>
       </c>
       <c r="G15" s="1">
-        <v>6.806378</v>
+        <v>6.8063779999999996</v>
       </c>
       <c r="H15" s="1">
-        <v>917.257000</v>
+        <v>917.25699999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.407000</v>
+        <v>-171.40700000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>24513.430590</v>
+        <v>24513.43059</v>
       </c>
       <c r="L15" s="1">
-        <v>6.809286</v>
+        <v>6.8092860000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>940.589000</v>
+        <v>940.58900000000006</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.906000</v>
+        <v>-120.90600000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>24524.319759</v>
+        <v>24524.319759000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>6.812311</v>
+        <v>6.8123110000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>947.273000</v>
+        <v>947.27300000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.408000</v>
+        <v>-104.408</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>24534.783361</v>
+        <v>24534.783361000002</v>
       </c>
       <c r="V15" s="1">
-        <v>6.815218</v>
+        <v>6.8152179999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>953.723000</v>
+        <v>953.72299999999996</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.008000</v>
+        <v>-89.007999999999996</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>24545.507363</v>
+        <v>24545.507363000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.818196</v>
+        <v>6.8181960000000004</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.727000</v>
+        <v>960.72699999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.988700</v>
+        <v>-76.988699999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>24556.002250</v>
+        <v>24556.002250000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.821112</v>
+        <v>6.8211120000000003</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.348000</v>
+        <v>965.34799999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.616400</v>
+        <v>-74.616399999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>24567.184517</v>
+        <v>24567.184517000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>6.824218</v>
+        <v>6.8242180000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.417000</v>
+        <v>972.41700000000003</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.092100</v>
+        <v>-79.092100000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>24577.992839</v>
+        <v>24577.992838999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>6.827220</v>
+        <v>6.8272199999999996</v>
       </c>
       <c r="AQ15" s="1">
-        <v>980.405000</v>
+        <v>980.40499999999997</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.474400</v>
+        <v>-90.474400000000003</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>24589.048697</v>
+        <v>24589.048696999998</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.830291</v>
+        <v>6.8302909999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>990.130000</v>
+        <v>990.13</v>
       </c>
       <c r="AW15" s="1">
-        <v>-107.946000</v>
+        <v>-107.946</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>24599.364955</v>
+        <v>24599.364955000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6.833157</v>
+        <v>6.8331569999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>998.254000</v>
+        <v>998.25400000000002</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.409000</v>
+        <v>-123.40900000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>24610.071597</v>
+        <v>24610.071596999998</v>
       </c>
       <c r="BE15" s="1">
         <v>6.836131</v>
       </c>
       <c r="BF15" s="1">
-        <v>1036.430000</v>
+        <v>1036.43</v>
       </c>
       <c r="BG15" s="1">
-        <v>-194.811000</v>
+        <v>-194.81100000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>24621.429982</v>
+        <v>24621.429982000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>6.839286</v>
+        <v>6.8392860000000004</v>
       </c>
       <c r="BK15" s="1">
-        <v>1102.340000</v>
+        <v>1102.3399999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-310.806000</v>
+        <v>-310.80599999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>24632.542384</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.842373</v>
+        <v>6.8423730000000003</v>
       </c>
       <c r="BP15" s="1">
-        <v>1209.490000</v>
+        <v>1209.49</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-493.772000</v>
+        <v>-493.77199999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>24643.101681</v>
       </c>
       <c r="BT15" s="1">
-        <v>6.845306</v>
+        <v>6.8453059999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1330.430000</v>
+        <v>1330.43</v>
       </c>
       <c r="BV15" s="1">
-        <v>-694.826000</v>
+        <v>-694.82600000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>24654.456131</v>
+        <v>24654.456130999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>6.848460</v>
+        <v>6.8484600000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1465.290000</v>
+        <v>1465.29</v>
       </c>
       <c r="CA15" s="1">
-        <v>-908.843000</v>
+        <v>-908.84299999999996</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>24666.695378</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.851860</v>
+        <v>6.8518600000000003</v>
       </c>
       <c r="CE15" s="1">
-        <v>1819.410000</v>
+        <v>1819.41</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1418.490000</v>
+        <v>-1418.49</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>24492.914072</v>
       </c>
       <c r="B16" s="1">
-        <v>6.803587</v>
+        <v>6.8035870000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>899.205000</v>
+        <v>899.20500000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>-203.000000</v>
+        <v>-203</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>24503.341996</v>
+        <v>24503.341995999999</v>
       </c>
       <c r="G16" s="1">
-        <v>6.806484</v>
+        <v>6.8064840000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>917.532000</v>
+        <v>917.53200000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.213000</v>
+        <v>-171.21299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>24513.773325</v>
+        <v>24513.773324999998</v>
       </c>
       <c r="L16" s="1">
-        <v>6.809381</v>
+        <v>6.8093810000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>940.682000</v>
+        <v>940.68200000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.173000</v>
+        <v>-121.173</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>24524.976461</v>
+        <v>24524.976460999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.812493</v>
+        <v>6.8124929999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>947.277000</v>
+        <v>947.27700000000004</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.431000</v>
+        <v>-104.431</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>24535.439104</v>
+        <v>24535.439104000001</v>
       </c>
       <c r="V16" s="1">
-        <v>6.815400</v>
+        <v>6.8154000000000003</v>
       </c>
       <c r="W16" s="1">
-        <v>953.766000</v>
+        <v>953.76599999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.925500</v>
+        <v>-88.9255</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>24545.895730</v>
+        <v>24545.89573</v>
       </c>
       <c r="AA16" s="1">
-        <v>6.818304</v>
+        <v>6.8183040000000004</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.733000</v>
+        <v>960.73299999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.998300</v>
+        <v>-76.9983</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>24556.382644</v>
+        <v>24556.382644000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.821217</v>
+        <v>6.8212169999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.358000</v>
+        <v>965.35799999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.594300</v>
+        <v>-74.594300000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>24567.543125</v>
       </c>
       <c r="AK16" s="1">
-        <v>6.824318</v>
+        <v>6.8243179999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.424000</v>
+        <v>972.42399999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.090600</v>
+        <v>-79.090599999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>24578.351447</v>
+        <v>24578.351447000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>6.827320</v>
+        <v>6.8273200000000003</v>
       </c>
       <c r="AQ16" s="1">
-        <v>980.398000</v>
+        <v>980.39800000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.483700</v>
+        <v>-90.483699999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>24589.415704</v>
+        <v>24589.415703999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>6.830393</v>
+        <v>6.8303929999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.136000</v>
+        <v>990.13599999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-107.952000</v>
+        <v>-107.952</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>24599.782090</v>
+        <v>24599.782090000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6.833273</v>
+        <v>6.8332730000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>998.255000</v>
+        <v>998.255</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.399000</v>
+        <v>-123.399</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>24610.711932</v>
+        <v>24610.711931999998</v>
       </c>
       <c r="BE16" s="1">
         <v>6.836309</v>
       </c>
       <c r="BF16" s="1">
-        <v>1036.420000</v>
+        <v>1036.42</v>
       </c>
       <c r="BG16" s="1">
-        <v>-194.763000</v>
+        <v>-194.76300000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>24621.769741</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.839380</v>
+        <v>6.8393800000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1102.370000</v>
+        <v>1102.3699999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-310.812000</v>
+        <v>-310.81200000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>24632.960478</v>
+        <v>24632.960478000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>6.842489</v>
+        <v>6.8424889999999996</v>
       </c>
       <c r="BP16" s="1">
-        <v>1209.510000</v>
+        <v>1209.51</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-493.788000</v>
+        <v>-493.78800000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>24643.514354</v>
+        <v>24643.514353999999</v>
       </c>
       <c r="BT16" s="1">
         <v>6.845421</v>
       </c>
       <c r="BU16" s="1">
-        <v>1330.440000</v>
+        <v>1330.44</v>
       </c>
       <c r="BV16" s="1">
-        <v>-694.944000</v>
+        <v>-694.94399999999996</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>24654.877730</v>
+        <v>24654.87773</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.848577</v>
+        <v>6.8485769999999997</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1465.260000</v>
+        <v>1465.26</v>
       </c>
       <c r="CA16" s="1">
-        <v>-908.813000</v>
+        <v>-908.81299999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>24667.237042</v>
+        <v>24667.237042000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>6.852010</v>
+        <v>6.8520099999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1821.020000</v>
+        <v>1821.02</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1417.370000</v>
+        <v>-1417.37</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>24493.253831</v>
+        <v>24493.253831000002</v>
       </c>
       <c r="B17" s="1">
-        <v>6.803682</v>
+        <v>6.8036820000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>899.436000</v>
+        <v>899.43600000000004</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.926000</v>
+        <v>-202.92599999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>24503.973369</v>
+        <v>24503.973368999999</v>
       </c>
       <c r="G17" s="1">
-        <v>6.806659</v>
+        <v>6.8066589999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>917.555000</v>
+        <v>917.55499999999995</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.482000</v>
+        <v>-171.482</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>24514.421595</v>
       </c>
       <c r="L17" s="1">
-        <v>6.809562</v>
+        <v>6.8095619999999997</v>
       </c>
       <c r="M17" s="1">
-        <v>940.588000</v>
+        <v>940.58799999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.020000</v>
+        <v>-121.02</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>24525.365853</v>
+        <v>24525.365852999999</v>
       </c>
       <c r="Q17" s="1">
         <v>6.812602</v>
       </c>
       <c r="R17" s="1">
-        <v>947.261000</v>
+        <v>947.26099999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.436000</v>
+        <v>-104.43600000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>24535.814048</v>
       </c>
       <c r="V17" s="1">
-        <v>6.815504</v>
+        <v>6.8155039999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>953.793000</v>
+        <v>953.79300000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.006600</v>
+        <v>-89.006600000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>24546.246410</v>
+        <v>24546.24641</v>
       </c>
       <c r="AA17" s="1">
-        <v>6.818402</v>
+        <v>6.8184019999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.846000</v>
+        <v>960.846</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.927800</v>
+        <v>-76.927800000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>24556.733811</v>
+        <v>24556.733810999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>6.821315</v>
+        <v>6.8213150000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.313000</v>
+        <v>965.31299999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.611300</v>
+        <v>-74.6113</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>24567.892335</v>
       </c>
       <c r="AK17" s="1">
-        <v>6.824415</v>
+        <v>6.8244150000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.428000</v>
+        <v>972.428</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.109200</v>
+        <v>-79.109200000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>24578.767622</v>
+        <v>24578.767621999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>6.827435</v>
+        <v>6.8274350000000004</v>
       </c>
       <c r="AQ17" s="1">
-        <v>980.395000</v>
+        <v>980.39499999999998</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.476300</v>
+        <v>-90.476299999999995</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>24589.830359</v>
@@ -4471,210 +4887,210 @@
         <v>6.830508</v>
       </c>
       <c r="AV17" s="1">
-        <v>990.144000</v>
+        <v>990.14400000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-107.936000</v>
+        <v>-107.93600000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>24600.083691</v>
       </c>
       <c r="AZ17" s="1">
-        <v>6.833357</v>
+        <v>6.8333570000000003</v>
       </c>
       <c r="BA17" s="1">
-        <v>998.281000</v>
+        <v>998.28099999999995</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.402000</v>
+        <v>-123.402</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>24611.179659</v>
+        <v>24611.179659000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>6.836439</v>
+        <v>6.8364390000000004</v>
       </c>
       <c r="BF17" s="1">
-        <v>1036.420000</v>
+        <v>1036.42</v>
       </c>
       <c r="BG17" s="1">
-        <v>-194.786000</v>
+        <v>-194.786</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>24622.145213</v>
       </c>
       <c r="BJ17" s="1">
-        <v>6.839485</v>
+        <v>6.8394849999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1102.350000</v>
+        <v>1102.3499999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.796000</v>
+        <v>-310.79599999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>24633.361246</v>
       </c>
       <c r="BO17" s="1">
-        <v>6.842600</v>
+        <v>6.8426</v>
       </c>
       <c r="BP17" s="1">
-        <v>1209.570000</v>
+        <v>1209.57</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-493.764000</v>
+        <v>-493.76400000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>24643.944384</v>
+        <v>24643.944383999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>6.845540</v>
+        <v>6.8455399999999997</v>
       </c>
       <c r="BU17" s="1">
-        <v>1330.360000</v>
+        <v>1330.36</v>
       </c>
       <c r="BV17" s="1">
-        <v>-694.948000</v>
+        <v>-694.94799999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>24655.303279</v>
       </c>
       <c r="BY17" s="1">
-        <v>6.848695</v>
+        <v>6.8486950000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1465.260000</v>
+        <v>1465.26</v>
       </c>
       <c r="CA17" s="1">
-        <v>-908.817000</v>
+        <v>-908.81700000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>24667.773712</v>
+        <v>24667.773711999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>6.852159</v>
+        <v>6.8521590000000003</v>
       </c>
       <c r="CE17" s="1">
-        <v>1819.070000</v>
+        <v>1819.07</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1417.490000</v>
+        <v>-1417.49</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>24493.898630</v>
+        <v>24493.89863</v>
       </c>
       <c r="B18" s="1">
-        <v>6.803861</v>
+        <v>6.8038610000000004</v>
       </c>
       <c r="C18" s="1">
-        <v>899.263000</v>
+        <v>899.26300000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.911000</v>
+        <v>-202.911</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>24504.348840</v>
+        <v>24504.348839999999</v>
       </c>
       <c r="G18" s="1">
-        <v>6.806764</v>
+        <v>6.8067640000000003</v>
       </c>
       <c r="H18" s="1">
-        <v>917.592000</v>
+        <v>917.59199999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.362000</v>
+        <v>-171.36199999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>24514.812477</v>
+        <v>24514.812476999999</v>
       </c>
       <c r="L18" s="1">
-        <v>6.809670</v>
+        <v>6.8096699999999997</v>
       </c>
       <c r="M18" s="1">
-        <v>940.657000</v>
+        <v>940.65700000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.026000</v>
+        <v>-121.026</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>24525.716494</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.812699</v>
+        <v>6.8126990000000003</v>
       </c>
       <c r="R18" s="1">
-        <v>947.237000</v>
+        <v>947.23699999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.380000</v>
+        <v>-104.38</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>24536.156819</v>
       </c>
       <c r="V18" s="1">
-        <v>6.815599</v>
+        <v>6.8155989999999997</v>
       </c>
       <c r="W18" s="1">
-        <v>953.768000</v>
+        <v>953.76800000000003</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.943100</v>
+        <v>-88.943100000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>24546.591649</v>
+        <v>24546.591649000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>6.818498</v>
+        <v>6.8184979999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.764000</v>
+        <v>960.76400000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.919900</v>
+        <v>-76.919899999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>24557.735235</v>
@@ -4683,1690 +5099,1690 @@
         <v>6.821593</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.257000</v>
+        <v>965.25699999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.635700</v>
+        <v>-74.6357</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>24568.300020</v>
+        <v>24568.300019999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.824528</v>
+        <v>6.8245279999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.425000</v>
+        <v>972.42499999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.085900</v>
+        <v>-79.085899999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>24579.070647</v>
       </c>
       <c r="AP18" s="1">
-        <v>6.827520</v>
+        <v>6.8275199999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>980.413000</v>
+        <v>980.41300000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.497700</v>
+        <v>-90.497699999999995</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>24590.143335</v>
+        <v>24590.143335000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>6.830595</v>
+        <v>6.8305949999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.117000</v>
+        <v>990.11699999999996</v>
       </c>
       <c r="AW18" s="1">
-        <v>-107.945000</v>
+        <v>-107.94499999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>24600.442266</v>
+        <v>24600.442265999998</v>
       </c>
       <c r="AZ18" s="1">
         <v>6.833456</v>
       </c>
       <c r="BA18" s="1">
-        <v>998.281000</v>
+        <v>998.28099999999995</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.414000</v>
+        <v>-123.414</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>24611.544250</v>
+        <v>24611.544249999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>6.836540</v>
+        <v>6.8365400000000003</v>
       </c>
       <c r="BF18" s="1">
-        <v>1036.430000</v>
+        <v>1036.43</v>
       </c>
       <c r="BG18" s="1">
-        <v>-194.817000</v>
+        <v>-194.81700000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>24622.539036</v>
+        <v>24622.539035999998</v>
       </c>
       <c r="BJ18" s="1">
         <v>6.839594</v>
       </c>
       <c r="BK18" s="1">
-        <v>1102.350000</v>
+        <v>1102.3499999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-310.811000</v>
+        <v>-310.81099999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>24633.779870</v>
+        <v>24633.779869999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>6.842717</v>
+        <v>6.8427170000000004</v>
       </c>
       <c r="BP18" s="1">
-        <v>1209.520000</v>
+        <v>1209.52</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-493.783000</v>
+        <v>-493.78300000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>24644.374911</v>
+        <v>24644.374910999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>6.845660</v>
+        <v>6.8456599999999996</v>
       </c>
       <c r="BU18" s="1">
-        <v>1330.290000</v>
+        <v>1330.29</v>
       </c>
       <c r="BV18" s="1">
-        <v>-694.983000</v>
+        <v>-694.98299999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>24655.750197</v>
+        <v>24655.750197000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>6.848819</v>
+        <v>6.8488189999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1465.350000</v>
+        <v>1465.35</v>
       </c>
       <c r="CA18" s="1">
-        <v>-908.955000</v>
+        <v>-908.95500000000004</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>24668.318784</v>
+        <v>24668.318783999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>6.852311</v>
+        <v>6.8523110000000003</v>
       </c>
       <c r="CE18" s="1">
-        <v>1820.400000</v>
+        <v>1820.4</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1418.390000</v>
+        <v>-1418.39</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>24494.279562</v>
       </c>
       <c r="B19" s="1">
-        <v>6.803967</v>
+        <v>6.8039670000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>899.300000</v>
+        <v>899.3</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.864000</v>
+        <v>-202.864</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>24504.694056</v>
       </c>
       <c r="G19" s="1">
-        <v>6.806859</v>
+        <v>6.8068590000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>917.155000</v>
+        <v>917.15499999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-171.308000</v>
+        <v>-171.30799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>24515.154714</v>
       </c>
       <c r="L19" s="1">
-        <v>6.809765</v>
+        <v>6.8097649999999996</v>
       </c>
       <c r="M19" s="1">
-        <v>940.713000</v>
+        <v>940.71299999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.126000</v>
+        <v>-121.126</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>24526.065179</v>
+        <v>24526.065179000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.812796</v>
+        <v>6.8127959999999996</v>
       </c>
       <c r="R19" s="1">
-        <v>947.258000</v>
+        <v>947.25800000000004</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.386000</v>
+        <v>-104.386</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>24536.499518</v>
+        <v>24536.499518000001</v>
       </c>
       <c r="V19" s="1">
-        <v>6.815694</v>
+        <v>6.8156939999999997</v>
       </c>
       <c r="W19" s="1">
-        <v>953.763000</v>
+        <v>953.76300000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.945300</v>
+        <v>-88.945300000000003</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>24547.001313</v>
+        <v>24547.001313000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.818611</v>
+        <v>6.8186109999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.766000</v>
+        <v>960.76599999999996</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.954900</v>
+        <v>-76.954899999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>24558.106241</v>
+        <v>24558.106241000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>6.821696</v>
+        <v>6.8216960000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.319000</v>
+        <v>965.31899999999996</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.588000</v>
+        <v>-74.587999999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>24568.597125</v>
       </c>
       <c r="AK19" s="1">
-        <v>6.824610</v>
+        <v>6.8246099999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.432000</v>
+        <v>972.43200000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.103800</v>
+        <v>-79.103800000000007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>24579.430260</v>
+        <v>24579.430260000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>6.827620</v>
+        <v>6.8276199999999996</v>
       </c>
       <c r="AQ19" s="1">
-        <v>980.413000</v>
+        <v>980.41300000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.475600</v>
+        <v>-90.4756</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>24590.512855</v>
+        <v>24590.512855000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>6.830698</v>
+        <v>6.8306979999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>990.127000</v>
+        <v>990.12699999999995</v>
       </c>
       <c r="AW19" s="1">
-        <v>-107.939000</v>
+        <v>-107.93899999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>24600.799418</v>
+        <v>24600.799417999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.833555</v>
+        <v>6.8335549999999996</v>
       </c>
       <c r="BA19" s="1">
-        <v>998.303000</v>
+        <v>998.303</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.425000</v>
+        <v>-123.425</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>24612.272842</v>
+        <v>24612.272841999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>6.836742</v>
+        <v>6.8367420000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1036.430000</v>
+        <v>1036.43</v>
       </c>
       <c r="BG19" s="1">
-        <v>-194.792000</v>
+        <v>-194.792</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>24623.291500</v>
+        <v>24623.291499999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.839803</v>
+        <v>6.8398029999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1102.360000</v>
+        <v>1102.3599999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.822000</v>
+        <v>-310.822</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>24634.176669</v>
       </c>
       <c r="BO19" s="1">
-        <v>6.842827</v>
+        <v>6.8428269999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1209.530000</v>
+        <v>1209.53</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-493.775000</v>
+        <v>-493.77499999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>24644.783119</v>
       </c>
       <c r="BT19" s="1">
-        <v>6.845773</v>
+        <v>6.8457730000000003</v>
       </c>
       <c r="BU19" s="1">
-        <v>1330.170000</v>
+        <v>1330.17</v>
       </c>
       <c r="BV19" s="1">
-        <v>-694.995000</v>
+        <v>-694.995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>24656.180224</v>
       </c>
       <c r="BY19" s="1">
-        <v>6.848939</v>
+        <v>6.8489389999999997</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1465.380000</v>
+        <v>1465.38</v>
       </c>
       <c r="CA19" s="1">
-        <v>-908.882000</v>
+        <v>-908.88199999999995</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>24669.165486</v>
+        <v>24669.165486000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>6.852546</v>
+        <v>6.8525460000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>1819.080000</v>
+        <v>1819.08</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1417.850000</v>
+        <v>-1417.85</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>24494.623781</v>
+        <v>24494.623780999998</v>
       </c>
       <c r="B20" s="1">
-        <v>6.804062</v>
+        <v>6.8040620000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>899.361000</v>
+        <v>899.36099999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.922000</v>
+        <v>-202.922</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>24505.038280</v>
+        <v>24505.038280000001</v>
       </c>
       <c r="G20" s="1">
-        <v>6.806955</v>
+        <v>6.8069550000000003</v>
       </c>
       <c r="H20" s="1">
-        <v>917.319000</v>
+        <v>917.31899999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.339000</v>
+        <v>-171.339</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>24515.502411</v>
+        <v>24515.502411000001</v>
       </c>
       <c r="L20" s="1">
-        <v>6.809862</v>
+        <v>6.8098619999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>940.274000</v>
+        <v>940.274</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.146000</v>
+        <v>-121.146</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>24526.482347</v>
+        <v>24526.482347000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>6.812912</v>
+        <v>6.8129119999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>947.305000</v>
+        <v>947.30499999999995</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.383000</v>
+        <v>-104.383</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>24536.930403</v>
+        <v>24536.930402999998</v>
       </c>
       <c r="V20" s="1">
-        <v>6.815814</v>
+        <v>6.8158139999999996</v>
       </c>
       <c r="W20" s="1">
-        <v>953.837000</v>
+        <v>953.83699999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.999700</v>
+        <v>-88.999700000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>24547.300896</v>
+        <v>24547.300896000001</v>
       </c>
       <c r="AA20" s="1">
         <v>6.818695</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.744000</v>
+        <v>960.74400000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.123200</v>
+        <v>-77.123199999999997</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>24558.452450</v>
+        <v>24558.452450000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.821792</v>
+        <v>6.8217920000000003</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.347000</v>
+        <v>965.34699999999998</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.605100</v>
+        <v>-74.605099999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>24568.946307</v>
+        <v>24568.946306999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.824707</v>
+        <v>6.8247070000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.441000</v>
+        <v>972.44100000000003</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.092900</v>
+        <v>-79.0929</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>24579.794805</v>
+        <v>24579.794805000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>6.827721</v>
+        <v>6.8277210000000004</v>
       </c>
       <c r="AQ20" s="1">
-        <v>980.402000</v>
+        <v>980.40200000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.486400</v>
+        <v>-90.486400000000003</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>24590.873446</v>
+        <v>24590.873446000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.830798</v>
+        <v>6.8307979999999997</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.128000</v>
+        <v>990.12800000000004</v>
       </c>
       <c r="AW20" s="1">
-        <v>-107.937000</v>
+        <v>-107.937</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>24601.521102</v>
+        <v>24601.521101999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.833756</v>
+        <v>6.8337560000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>998.266000</v>
+        <v>998.26599999999996</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.401000</v>
+        <v>-123.401</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>24612.646827</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.836846</v>
+        <v>6.8368460000000004</v>
       </c>
       <c r="BF20" s="1">
-        <v>1036.430000</v>
+        <v>1036.43</v>
       </c>
       <c r="BG20" s="1">
-        <v>-194.792000</v>
+        <v>-194.792</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>24623.695211</v>
+        <v>24623.695210999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.839915</v>
+        <v>6.8399150000000004</v>
       </c>
       <c r="BK20" s="1">
-        <v>1102.350000</v>
+        <v>1102.3499999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-310.821000</v>
+        <v>-310.82100000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>24634.597276</v>
       </c>
       <c r="BO20" s="1">
-        <v>6.842944</v>
+        <v>6.8429440000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1209.540000</v>
+        <v>1209.54</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-493.762000</v>
+        <v>-493.762</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>24645.211166</v>
+        <v>24645.211166000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>6.845892</v>
+        <v>6.8458920000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1330.130000</v>
+        <v>1330.13</v>
       </c>
       <c r="BV20" s="1">
-        <v>-694.983000</v>
+        <v>-694.98299999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>24656.923199</v>
+        <v>24656.923199000001</v>
       </c>
       <c r="BY20" s="1">
         <v>6.849145</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1465.300000</v>
+        <v>1465.3</v>
       </c>
       <c r="CA20" s="1">
-        <v>-908.883000</v>
+        <v>-908.88300000000004</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>24669.395135</v>
+        <v>24669.395134999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>6.852610</v>
+        <v>6.8526100000000003</v>
       </c>
       <c r="CE20" s="1">
-        <v>1819.260000</v>
+        <v>1819.26</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1417.850000</v>
+        <v>-1417.85</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>24494.964533</v>
+        <v>24494.964532999998</v>
       </c>
       <c r="B21" s="1">
         <v>6.804157</v>
       </c>
       <c r="C21" s="1">
-        <v>899.438000</v>
+        <v>899.43799999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.908000</v>
+        <v>-202.90799999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>24505.457895</v>
       </c>
       <c r="G21" s="1">
-        <v>6.807072</v>
+        <v>6.8070719999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>917.621000</v>
+        <v>917.62099999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.399000</v>
+        <v>-171.399</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>24515.922489</v>
       </c>
       <c r="L21" s="1">
-        <v>6.809978</v>
+        <v>6.8099780000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>940.606000</v>
+        <v>940.60599999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.949000</v>
+        <v>-120.949</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>24526.773003</v>
+        <v>24526.773002999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>6.812993</v>
+        <v>6.8129929999999996</v>
       </c>
       <c r="R21" s="1">
-        <v>947.315000</v>
+        <v>947.31500000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.394000</v>
+        <v>-104.39400000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>24537.210781</v>
+        <v>24537.210781000002</v>
       </c>
       <c r="V21" s="1">
-        <v>6.815892</v>
+        <v>6.8158919999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>953.743000</v>
+        <v>953.74300000000005</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.986400</v>
+        <v>-88.986400000000003</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>24547.650079</v>
+        <v>24547.650078999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.818792</v>
+        <v>6.8187920000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.691000</v>
+        <v>960.69100000000003</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.980900</v>
+        <v>-76.980900000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>24558.792736</v>
+        <v>24558.792735999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>6.821887</v>
+        <v>6.8218870000000003</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.240000</v>
+        <v>965.24</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.575400</v>
+        <v>-74.575400000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>24569.296002</v>
+        <v>24569.296001999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.824804</v>
+        <v>6.8248040000000003</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.424000</v>
+        <v>972.42399999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.114800</v>
+        <v>-79.114800000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>24580.511558</v>
+        <v>24580.511557999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.827920</v>
+        <v>6.8279199999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>980.393000</v>
+        <v>980.39300000000003</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.482800</v>
+        <v>-90.482799999999997</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>24591.601077</v>
+        <v>24591.601076999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>6.831000</v>
+        <v>6.8310000000000004</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.139000</v>
+        <v>990.13900000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-107.922000</v>
+        <v>-107.922</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>24601.898024</v>
+        <v>24601.898023999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.833861</v>
+        <v>6.8338609999999997</v>
       </c>
       <c r="BA21" s="1">
-        <v>998.273000</v>
+        <v>998.27300000000002</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.406000</v>
+        <v>-123.40600000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>24613.008942</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.836947</v>
+        <v>6.8369470000000003</v>
       </c>
       <c r="BF21" s="1">
-        <v>1036.430000</v>
+        <v>1036.43</v>
       </c>
       <c r="BG21" s="1">
-        <v>-194.817000</v>
+        <v>-194.81700000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>24624.069195</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.840019</v>
+        <v>6.8400189999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1102.380000</v>
+        <v>1102.3800000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.807000</v>
+        <v>-310.80700000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>24635.300138</v>
+        <v>24635.300137999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.843139</v>
+        <v>6.8431389999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1209.530000</v>
+        <v>1209.53</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-493.772000</v>
+        <v>-493.77199999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>24645.945246</v>
+        <v>24645.945245999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>6.846096</v>
+        <v>6.8460960000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1329.990000</v>
+        <v>1329.99</v>
       </c>
       <c r="BV21" s="1">
-        <v>-694.958000</v>
+        <v>-694.95799999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>24657.053151</v>
       </c>
       <c r="BY21" s="1">
-        <v>6.849181</v>
+        <v>6.8491809999999997</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1465.310000</v>
+        <v>1465.31</v>
       </c>
       <c r="CA21" s="1">
-        <v>-908.846000</v>
+        <v>-908.846</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>24669.914910</v>
+        <v>24669.91491</v>
       </c>
       <c r="CD21" s="1">
         <v>6.852754</v>
       </c>
       <c r="CE21" s="1">
-        <v>1820.230000</v>
+        <v>1820.23</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1418.550000</v>
+        <v>-1418.55</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>24495.392581</v>
       </c>
       <c r="B22" s="1">
-        <v>6.804276</v>
+        <v>6.8042759999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>899.447000</v>
+        <v>899.447</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.950000</v>
+        <v>-202.95</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>24505.733672</v>
+        <v>24505.733671999998</v>
       </c>
       <c r="G22" s="1">
-        <v>6.807148</v>
+        <v>6.8071479999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>917.270000</v>
+        <v>917.27</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.379000</v>
+        <v>-171.37899999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>24516.209209</v>
+        <v>24516.209209000001</v>
       </c>
       <c r="L22" s="1">
-        <v>6.810058</v>
+        <v>6.8100579999999997</v>
       </c>
       <c r="M22" s="1">
-        <v>940.519000</v>
+        <v>940.51900000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.035000</v>
+        <v>-121.035</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>24527.121163</v>
       </c>
       <c r="Q22" s="1">
-        <v>6.813089</v>
+        <v>6.8130889999999997</v>
       </c>
       <c r="R22" s="1">
-        <v>947.298000</v>
+        <v>947.298</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.442000</v>
+        <v>-104.44199999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>24537.555005</v>
+        <v>24537.555004999998</v>
       </c>
       <c r="V22" s="1">
-        <v>6.815988</v>
+        <v>6.8159879999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>953.774000</v>
+        <v>953.774</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.977800</v>
+        <v>-88.977800000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>24547.999263</v>
+        <v>24547.999263000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>6.818889</v>
+        <v>6.8188890000000004</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.785000</v>
+        <v>960.78499999999997</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.962200</v>
+        <v>-76.962199999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>24559.477185</v>
       </c>
       <c r="AF22" s="1">
-        <v>6.822077</v>
+        <v>6.8220770000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.316000</v>
+        <v>965.31600000000003</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.593100</v>
+        <v>-74.593100000000007</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>24569.991378</v>
+        <v>24569.991377999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>6.824998</v>
+        <v>6.8249979999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.442000</v>
+        <v>972.44200000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.109000</v>
+        <v>-79.108999999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>24580.873636</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.828020</v>
+        <v>6.8280200000000004</v>
       </c>
       <c r="AQ22" s="1">
-        <v>980.395000</v>
+        <v>980.39499999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.467700</v>
+        <v>-90.467699999999994</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>24591.992173</v>
+        <v>24591.992172999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>6.831109</v>
+        <v>6.8311089999999997</v>
       </c>
       <c r="AV22" s="1">
-        <v>990.132000</v>
+        <v>990.13199999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-107.947000</v>
+        <v>-107.947</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>24602.273993</v>
+        <v>24602.273992999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>6.833965</v>
+        <v>6.8339650000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>998.254000</v>
+        <v>998.25400000000002</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.409000</v>
+        <v>-123.40900000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>24613.685449</v>
+        <v>24613.685449000001</v>
       </c>
       <c r="BE22" s="1">
         <v>6.837135</v>
       </c>
       <c r="BF22" s="1">
-        <v>1036.450000</v>
+        <v>1036.45</v>
       </c>
       <c r="BG22" s="1">
-        <v>-194.793000</v>
+        <v>-194.79300000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>24624.756153</v>
+        <v>24624.756152999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>6.840210</v>
+        <v>6.8402099999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1102.340000</v>
+        <v>1102.3399999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-310.790000</v>
+        <v>-310.79000000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>24635.411211</v>
+        <v>24635.411210999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>6.843170</v>
+        <v>6.8431699999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1209.540000</v>
+        <v>1209.54</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-493.806000</v>
+        <v>-493.80599999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>24646.087382</v>
+        <v>24646.087382000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.846135</v>
+        <v>6.8461350000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>1329.990000</v>
+        <v>1329.99</v>
       </c>
       <c r="BV22" s="1">
-        <v>-694.928000</v>
+        <v>-694.928</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>24657.476238</v>
+        <v>24657.476237999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>6.849299</v>
+        <v>6.8492990000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1465.170000</v>
+        <v>1465.17</v>
       </c>
       <c r="CA22" s="1">
-        <v>-908.905000</v>
+        <v>-908.90499999999997</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>24670.435213</v>
+        <v>24670.435213000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>6.852899</v>
+        <v>6.8528989999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1820.940000</v>
+        <v>1820.94</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1417.120000</v>
+        <v>-1417.12</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>24495.662932</v>
+        <v>24495.662931999999</v>
       </c>
       <c r="B23" s="1">
-        <v>6.804351</v>
+        <v>6.8043509999999996</v>
       </c>
       <c r="C23" s="1">
-        <v>899.335000</v>
+        <v>899.33500000000004</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.849000</v>
+        <v>-202.84899999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>24506.079912</v>
+        <v>24506.079912000001</v>
       </c>
       <c r="G23" s="1">
-        <v>6.807244</v>
+        <v>6.8072439999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>917.070000</v>
+        <v>917.07</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.574000</v>
+        <v>-171.57400000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>24516.554424</v>
+        <v>24516.554424000002</v>
       </c>
       <c r="L23" s="1">
-        <v>6.810154</v>
+        <v>6.8101539999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>940.803000</v>
+        <v>940.803</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.911000</v>
+        <v>-120.911</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>24527.472330</v>
+        <v>24527.472330000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>6.813187</v>
+        <v>6.8131870000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>947.290000</v>
+        <v>947.29</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.392000</v>
+        <v>-104.392</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>24537.898236</v>
+        <v>24537.898236000001</v>
       </c>
       <c r="V23" s="1">
-        <v>6.816083</v>
+        <v>6.8160829999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>953.756000</v>
+        <v>953.75599999999997</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.981400</v>
+        <v>-88.981399999999994</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>24548.696012</v>
       </c>
       <c r="AA23" s="1">
-        <v>6.819082</v>
+        <v>6.8190819999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.778000</v>
+        <v>960.77800000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.024700</v>
+        <v>-77.024699999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>24559.825375</v>
       </c>
       <c r="AF23" s="1">
-        <v>6.822174</v>
+        <v>6.8221740000000004</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.380000</v>
+        <v>965.38</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.649600</v>
+        <v>-74.649600000000007</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>24570.343041</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.825095</v>
+        <v>6.8250950000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.425000</v>
+        <v>972.42499999999995</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.117100</v>
+        <v>-79.117099999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>24581.232738</v>
+        <v>24581.232737999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>6.828120</v>
+        <v>6.8281200000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>980.410000</v>
+        <v>980.41</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.474000</v>
+        <v>-90.474000000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>24592.377316</v>
+        <v>24592.377315999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>6.831216</v>
+        <v>6.8312160000000004</v>
       </c>
       <c r="AV23" s="1">
-        <v>990.145000</v>
+        <v>990.14499999999998</v>
       </c>
       <c r="AW23" s="1">
-        <v>-107.955000</v>
+        <v>-107.955</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>24602.946072</v>
+        <v>24602.946071999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>6.834152</v>
+        <v>6.8341519999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>998.279000</v>
+        <v>998.279</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.391000</v>
+        <v>-123.39100000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>24614.128872</v>
+        <v>24614.128872000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>6.837258</v>
+        <v>6.8372580000000003</v>
       </c>
       <c r="BF23" s="1">
-        <v>1036.430000</v>
+        <v>1036.43</v>
       </c>
       <c r="BG23" s="1">
-        <v>-194.793000</v>
+        <v>-194.79300000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>24625.228377</v>
+        <v>24625.228376999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>6.840341</v>
+        <v>6.8403409999999996</v>
       </c>
       <c r="BK23" s="1">
-        <v>1102.350000</v>
+        <v>1102.3499999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-310.799000</v>
+        <v>-310.79899999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>24635.835786</v>
       </c>
       <c r="BO23" s="1">
-        <v>6.843288</v>
+        <v>6.8432880000000003</v>
       </c>
       <c r="BP23" s="1">
-        <v>1209.510000</v>
+        <v>1209.51</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-493.797000</v>
+        <v>-493.79700000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>24646.499311</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.846250</v>
+        <v>6.8462500000000004</v>
       </c>
       <c r="BU23" s="1">
-        <v>1329.920000</v>
+        <v>1329.92</v>
       </c>
       <c r="BV23" s="1">
-        <v>-694.869000</v>
+        <v>-694.86900000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>24657.895392</v>
+        <v>24657.895391999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>6.849415</v>
+        <v>6.8494149999999996</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1465.360000</v>
+        <v>1465.36</v>
       </c>
       <c r="CA23" s="1">
-        <v>-908.836000</v>
+        <v>-908.83600000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>24670.951837</v>
+        <v>24670.951837000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>6.853042</v>
+        <v>6.8530420000000003</v>
       </c>
       <c r="CE23" s="1">
-        <v>1819.500000</v>
+        <v>1819.5</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1416.780000</v>
+        <v>-1416.78</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>24496.007123</v>
+        <v>24496.007122999999</v>
       </c>
       <c r="B24" s="1">
-        <v>6.804446</v>
+        <v>6.8044460000000004</v>
       </c>
       <c r="C24" s="1">
-        <v>899.284000</v>
+        <v>899.28399999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.865000</v>
+        <v>-202.86500000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>24506.425094</v>
+        <v>24506.425093999998</v>
       </c>
       <c r="G24" s="1">
-        <v>6.807340</v>
+        <v>6.8073399999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>917.175000</v>
+        <v>917.17499999999995</v>
       </c>
       <c r="I24" s="1">
-        <v>-171.039000</v>
+        <v>-171.03899999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>24516.903577</v>
+        <v>24516.903577000001</v>
       </c>
       <c r="L24" s="1">
-        <v>6.810251</v>
+        <v>6.8102510000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>940.494000</v>
+        <v>940.49400000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.094000</v>
+        <v>-121.09399999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>24528.165241</v>
+        <v>24528.165240999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.813379</v>
+        <v>6.8133790000000003</v>
       </c>
       <c r="R24" s="1">
-        <v>947.233000</v>
+        <v>947.23299999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.355000</v>
+        <v>-104.355</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>24538.584236</v>
+        <v>24538.584235999999</v>
       </c>
       <c r="V24" s="1">
-        <v>6.816273</v>
+        <v>6.8162729999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>953.721000</v>
+        <v>953.721</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.976000</v>
+        <v>-88.975999999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>24549.045949</v>
+        <v>24549.045948999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>6.819179</v>
+        <v>6.8191790000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.737000</v>
+        <v>960.73699999999997</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.965900</v>
+        <v>-76.965900000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>24560.169599</v>
+        <v>24560.169599000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.822269</v>
+        <v>6.8222690000000004</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.312000</v>
+        <v>965.31200000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.625600</v>
+        <v>-74.625600000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>24570.687762</v>
+        <v>24570.687762000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>6.825191</v>
+        <v>6.8251910000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.443000</v>
+        <v>972.44299999999998</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.096800</v>
+        <v>-79.096800000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>24581.903794</v>
+        <v>24581.903794000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.828307</v>
+        <v>6.8283069999999997</v>
       </c>
       <c r="AQ24" s="1">
-        <v>980.395000</v>
+        <v>980.39499999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.486600</v>
+        <v>-90.486599999999996</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>24592.820740</v>
+        <v>24592.820739999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>6.831339</v>
+        <v>6.8313389999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.132000</v>
+        <v>990.13199999999995</v>
       </c>
       <c r="AW24" s="1">
-        <v>-107.936000</v>
+        <v>-107.93600000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>24603.359766</v>
+        <v>24603.359766000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>6.834267</v>
+        <v>6.8342669999999996</v>
       </c>
       <c r="BA24" s="1">
-        <v>998.295000</v>
+        <v>998.29499999999996</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.419000</v>
+        <v>-123.419</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>24614.488967</v>
+        <v>24614.488967000001</v>
       </c>
       <c r="BE24" s="1">
         <v>6.837358</v>
       </c>
       <c r="BF24" s="1">
-        <v>1036.420000</v>
+        <v>1036.42</v>
       </c>
       <c r="BG24" s="1">
-        <v>-194.801000</v>
+        <v>-194.80099999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>24625.616217</v>
+        <v>24625.616216999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>6.840449</v>
+        <v>6.8404489999999996</v>
       </c>
       <c r="BK24" s="1">
-        <v>1102.350000</v>
+        <v>1102.3499999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-310.805000</v>
+        <v>-310.80500000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>24636.237548</v>
+        <v>24636.237548000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>6.843399</v>
+        <v>6.8433989999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1209.510000</v>
+        <v>1209.51</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-493.797000</v>
+        <v>-493.79700000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>24646.998253</v>
+        <v>24646.998253000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>6.846388</v>
+        <v>6.8463880000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1329.870000</v>
+        <v>1329.87</v>
       </c>
       <c r="BV24" s="1">
-        <v>-694.745000</v>
+        <v>-694.745</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>24658.349693</v>
       </c>
       <c r="BY24" s="1">
-        <v>6.849542</v>
+        <v>6.8495419999999996</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1465.230000</v>
+        <v>1465.23</v>
       </c>
       <c r="CA24" s="1">
-        <v>-908.803000</v>
+        <v>-908.803</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>24671.469373</v>
@@ -6375,105 +6791,105 @@
         <v>6.853186</v>
       </c>
       <c r="CE24" s="1">
-        <v>1820.120000</v>
+        <v>1820.12</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1417.020000</v>
+        <v>-1417.02</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>24496.348405</v>
+        <v>24496.348405000001</v>
       </c>
       <c r="B25" s="1">
-        <v>6.804541</v>
+        <v>6.8045410000000004</v>
       </c>
       <c r="C25" s="1">
-        <v>899.303000</v>
+        <v>899.303</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.758000</v>
+        <v>-202.75800000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>24507.112053</v>
+        <v>24507.112053000001</v>
       </c>
       <c r="G25" s="1">
         <v>6.807531</v>
       </c>
       <c r="H25" s="1">
-        <v>917.062000</v>
+        <v>917.06200000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-171.191000</v>
+        <v>-171.191</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>24517.596983</v>
+        <v>24517.596982999999</v>
       </c>
       <c r="L25" s="1">
-        <v>6.810444</v>
+        <v>6.8104440000000004</v>
       </c>
       <c r="M25" s="1">
-        <v>940.628000</v>
+        <v>940.62800000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.154000</v>
+        <v>-121.154</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>24528.516904</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.813477</v>
+        <v>6.8134769999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>947.310000</v>
+        <v>947.31</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.367000</v>
+        <v>-104.367</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>24538.926443</v>
       </c>
       <c r="V25" s="1">
-        <v>6.816368</v>
+        <v>6.8163679999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>953.683000</v>
+        <v>953.68299999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.991600</v>
+        <v>-88.991600000000005</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>24549.395005</v>
+        <v>24549.395004999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>6.819276</v>
+        <v>6.8192760000000003</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.707000</v>
+        <v>960.70699999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.013900</v>
+        <v>-77.013900000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>24560.821839</v>
@@ -6482,58 +6898,58 @@
         <v>6.822451</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.309000</v>
+        <v>965.30899999999997</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.563200</v>
+        <v>-74.563199999999995</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>24571.337520</v>
+        <v>24571.337520000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>6.825372</v>
+        <v>6.8253719999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.432000</v>
+        <v>972.43200000000002</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.114800</v>
+        <v>-79.114800000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>24582.345729</v>
+        <v>24582.345729000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.828429</v>
+        <v>6.8284289999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>980.415000</v>
+        <v>980.41499999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.475100</v>
+        <v>-90.475099999999998</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>24593.084115</v>
+        <v>24593.084115000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>6.831412</v>
+        <v>6.8314120000000003</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.142000</v>
+        <v>990.14200000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-107.940000</v>
+        <v>-107.94</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>24603.734213</v>
@@ -6542,150 +6958,150 @@
         <v>6.834371</v>
       </c>
       <c r="BA25" s="1">
-        <v>998.295000</v>
+        <v>998.29499999999996</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.416000</v>
+        <v>-123.416</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>24614.848598</v>
       </c>
       <c r="BE25" s="1">
-        <v>6.837458</v>
+        <v>6.8374579999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1036.400000</v>
+        <v>1036.4000000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-194.809000</v>
+        <v>-194.809</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>24625.992680</v>
+        <v>24625.992679999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>6.840554</v>
       </c>
       <c r="BK25" s="1">
-        <v>1102.340000</v>
+        <v>1102.3399999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-310.810000</v>
+        <v>-310.81</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>24636.656699</v>
+        <v>24636.656698999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.843516</v>
+        <v>6.8435160000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1209.560000</v>
+        <v>1209.56</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-493.759000</v>
+        <v>-493.75900000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>24647.759146</v>
       </c>
       <c r="BT25" s="1">
-        <v>6.846600</v>
+        <v>6.8465999999999996</v>
       </c>
       <c r="BU25" s="1">
-        <v>1329.890000</v>
+        <v>1329.89</v>
       </c>
       <c r="BV25" s="1">
-        <v>-694.634000</v>
+        <v>-694.63400000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>24658.797084</v>
+        <v>24658.797084000002</v>
       </c>
       <c r="BY25" s="1">
         <v>6.849666</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1465.280000</v>
+        <v>1465.28</v>
       </c>
       <c r="CA25" s="1">
-        <v>-908.911000</v>
+        <v>-908.91099999999994</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>24672.023403</v>
+        <v>24672.023402999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>6.853340</v>
+        <v>6.8533400000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>1820.850000</v>
+        <v>1820.85</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1417.240000</v>
+        <v>-1417.24</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>24497.031363</v>
+        <v>24497.031362999998</v>
       </c>
       <c r="B26" s="1">
-        <v>6.804731</v>
+        <v>6.8047310000000003</v>
       </c>
       <c r="C26" s="1">
-        <v>899.183000</v>
+        <v>899.18299999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.783000</v>
+        <v>-202.78299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>24507.456807</v>
+        <v>24507.456806999999</v>
       </c>
       <c r="G26" s="1">
-        <v>6.807627</v>
+        <v>6.8076270000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>917.265000</v>
+        <v>917.26499999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-171.431000</v>
+        <v>-171.43100000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>24517.942729</v>
+        <v>24517.942728999999</v>
       </c>
       <c r="L26" s="1">
-        <v>6.810540</v>
+        <v>6.8105399999999996</v>
       </c>
       <c r="M26" s="1">
-        <v>940.619000</v>
+        <v>940.61900000000003</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.950000</v>
+        <v>-120.95</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>24528.865156</v>
@@ -6694,210 +7110,211 @@
         <v>6.813574</v>
       </c>
       <c r="R26" s="1">
-        <v>947.299000</v>
+        <v>947.29899999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.380000</v>
+        <v>-104.38</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>24539.301946</v>
       </c>
       <c r="V26" s="1">
-        <v>6.816473</v>
+        <v>6.8164730000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>953.699000</v>
+        <v>953.69899999999996</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.914600</v>
+        <v>-88.914599999999993</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>24550.068572</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.819463</v>
+        <v>6.8194629999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.777000</v>
+        <v>960.77700000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.003400</v>
+        <v>-77.003399999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>24561.203757</v>
+        <v>24561.203756999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>6.822557</v>
+        <v>6.8225569999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.349000</v>
+        <v>965.34900000000005</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.614100</v>
+        <v>-74.614099999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>24571.734319</v>
+        <v>24571.734318999999</v>
       </c>
       <c r="AK26" s="1">
         <v>6.825482</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.454000</v>
+        <v>972.45399999999995</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.092500</v>
+        <v>-79.092500000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>24582.707808</v>
+        <v>24582.707807999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>6.828530</v>
+        <v>6.8285299999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>980.394000</v>
+        <v>980.39400000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.455600</v>
+        <v>-90.455600000000004</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>24593.450691</v>
+        <v>24593.450690999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.831514</v>
+        <v>6.8315140000000003</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.146000</v>
+        <v>990.14599999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-107.953000</v>
+        <v>-107.953</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>24604.111670</v>
+        <v>24604.111669999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>6.834475</v>
+        <v>6.8344750000000003</v>
       </c>
       <c r="BA26" s="1">
-        <v>998.283000</v>
+        <v>998.28300000000002</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.420000</v>
+        <v>-123.42</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>24615.262727</v>
+        <v>24615.262727000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>6.837573</v>
+        <v>6.8375729999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1036.420000</v>
+        <v>1036.42</v>
       </c>
       <c r="BG26" s="1">
-        <v>-194.788000</v>
+        <v>-194.78800000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>24626.425197</v>
       </c>
       <c r="BJ26" s="1">
-        <v>6.840674</v>
+        <v>6.8406739999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1102.350000</v>
+        <v>1102.3499999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-310.794000</v>
+        <v>-310.79399999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>24637.052970</v>
+        <v>24637.052970000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>6.843626</v>
+        <v>6.8436260000000004</v>
       </c>
       <c r="BP26" s="1">
-        <v>1209.560000</v>
+        <v>1209.56</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-493.796000</v>
+        <v>-493.79599999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>24648.192122</v>
       </c>
       <c r="BT26" s="1">
-        <v>6.846720</v>
+        <v>6.8467200000000004</v>
       </c>
       <c r="BU26" s="1">
-        <v>1329.840000</v>
+        <v>1329.84</v>
       </c>
       <c r="BV26" s="1">
-        <v>-694.594000</v>
+        <v>-694.59400000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>24659.253900</v>
+        <v>24659.2539</v>
       </c>
       <c r="BY26" s="1">
         <v>6.849793</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1465.210000</v>
+        <v>1465.21</v>
       </c>
       <c r="CA26" s="1">
-        <v>-908.926000</v>
+        <v>-908.92600000000004</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>24672.551772</v>
+        <v>24672.551771999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>6.853487</v>
+        <v>6.8534870000000003</v>
       </c>
       <c r="CE26" s="1">
-        <v>1819.350000</v>
+        <v>1819.35</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1417.080000</v>
+        <v>-1417.08</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>